--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -679,23 +679,17 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>What was administered　医薬品</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
-投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-【JP-CORE】
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。-また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
+    <t>CodeableConcept
+Reference</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
     <t>Codes identifying substance or product that can be administered.</t>
@@ -704,6 +698,13 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -716,14 +717,19 @@
     <t>RXA-5-Administered Code</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.
-リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない任意の文字列値にすることができる。</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -780,12 +786,6 @@
     <t>MedicationAdministration.medication[x].coding.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
     <t>MedicationAdministration.medication[x].coding.extension</t>
   </si>
   <si>
@@ -926,6 +926,13 @@
   </si>
   <si>
     <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
+</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1101,8 +1108,8 @@
     <t>MedicationAdministration.effective[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>Start and end time of administration　開始時間と終了時間</t>
@@ -1838,7 +1845,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1848,7 +1855,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4190,16 +4197,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4228,25 +4235,23 @@
         <v>197</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
@@ -4264,16 +4269,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4281,9 +4286,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4301,18 +4308,20 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4337,13 +4346,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4361,10 +4370,10 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4373,19 +4382,19 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4397,14 +4406,14 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4416,7 +4425,7 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>225</v>
@@ -4424,9 +4433,7 @@
       <c r="L23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4463,37 +4470,37 @@
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4511,11 +4518,11 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>79</v>
@@ -4527,23 +4534,21 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4579,19 +4584,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4603,19 +4608,19 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4623,7 +4628,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4631,10 +4636,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4643,19 +4648,23 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4703,31 +4712,31 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4735,18 +4744,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4758,7 +4767,7 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>225</v>
@@ -4766,9 +4775,7 @@
       <c r="L26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4805,37 +4812,37 @@
         <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4849,18 +4856,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4869,23 +4876,21 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4921,43 +4926,43 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4965,7 +4970,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4973,7 +4978,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -4988,18 +4993,20 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5047,7 +5054,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5065,13 +5072,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5079,7 +5086,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5087,7 +5094,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
@@ -5102,18 +5109,18 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5161,7 +5168,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5179,13 +5186,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5193,7 +5200,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5216,17 +5223,17 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5275,7 +5282,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5293,13 +5300,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5307,7 +5314,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5315,7 +5322,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5330,19 +5337,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>272</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5391,7 +5396,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5409,13 +5414,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5423,7 +5428,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5446,19 +5451,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5507,7 +5512,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5525,13 +5530,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5539,7 +5544,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5547,7 +5552,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5562,18 +5567,20 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5624,7 +5631,7 @@
         <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5636,16 +5643,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5653,9 +5660,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5673,18 +5682,20 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5733,10 +5744,10 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5745,19 +5756,19 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5765,18 +5776,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5785,19 +5796,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5835,43 +5846,43 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5879,7 +5890,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5899,20 +5910,18 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5961,7 +5970,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5970,16 +5979,16 @@
         <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5993,18 +6002,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6013,19 +6022,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6051,49 +6060,49 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6107,7 +6116,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6130,16 +6139,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6189,7 +6198,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6198,7 +6207,7 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6207,7 +6216,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>318</v>
+        <v>129</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6221,7 +6230,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6244,16 +6253,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6279,13 +6288,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6303,7 +6312,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6335,7 +6344,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6355,19 +6364,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>325</v>
+        <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6417,7 +6426,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6432,16 +6441,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6449,7 +6458,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6460,7 +6469,7 @@
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6469,19 +6478,19 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6531,13 +6540,13 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
@@ -6549,10 +6558,10 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>336</v>
+        <v>129</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6563,7 +6572,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6571,7 +6580,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>86</v>
@@ -6583,19 +6592,19 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6645,10 +6654,10 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>86</v>
@@ -6660,16 +6669,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6677,7 +6686,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6697,18 +6706,20 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6757,7 +6768,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6772,16 +6783,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>353</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6789,7 +6800,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6797,7 +6808,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6809,18 +6820,20 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>239</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6869,10 +6882,10 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6881,19 +6894,19 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6901,11 +6914,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6921,20 +6934,18 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>225</v>
+        <v>353</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6983,7 +6994,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>228</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6995,19 +7006,19 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>223</v>
+        <v>356</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7015,43 +7026,39 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7099,25 +7106,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7131,18 +7138,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7154,15 +7161,17 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>362</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7187,13 +7196,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -7211,25 +7220,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>367</v>
+        <v>228</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7243,39 +7252,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>369</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7323,25 +7336,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>372</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>373</v>
+        <v>129</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7355,7 +7368,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7366,7 +7379,7 @@
         <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7381,10 +7394,10 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7414,10 +7427,10 @@
         <v>197</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7435,13 +7448,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7450,16 +7463,16 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7467,7 +7480,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7475,10 +7488,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7487,20 +7500,18 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7549,13 +7560,13 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
@@ -7564,24 +7575,24 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7592,7 +7603,7 @@
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7604,20 +7615,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>392</v>
+        <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7641,13 +7648,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>382</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7665,13 +7672,13 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
@@ -7680,16 +7687,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7697,7 +7704,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7720,16 +7727,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7779,7 +7786,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7794,24 +7801,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7822,7 +7829,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -7834,18 +7841,20 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7893,13 +7902,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -7908,16 +7917,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7925,7 +7934,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7936,7 +7945,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7948,15 +7957,17 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8005,31 +8016,31 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>416</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8037,7 +8048,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8048,7 +8059,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8060,15 +8071,17 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>239</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8117,25 +8130,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>222</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>223</v>
+        <v>417</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8149,18 +8162,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8172,17 +8185,15 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>225</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8231,25 +8242,25 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>228</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>137</v>
+        <v>421</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>223</v>
+        <v>422</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8263,43 +8274,39 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>358</v>
+        <v>225</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8347,25 +8354,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>360</v>
+        <v>227</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8379,18 +8386,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8402,15 +8409,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>422</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8459,25 +8468,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>421</v>
+        <v>233</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>424</v>
+        <v>228</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8495,37 +8504,39 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8549,13 +8560,13 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8573,31 +8584,31 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>425</v>
+        <v>365</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>431</v>
+        <v>129</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8605,7 +8616,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8628,17 +8639,15 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8663,13 +8672,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8687,7 +8696,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8705,13 +8714,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8719,7 +8728,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8745,13 +8754,13 @@
         <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8780,10 +8789,10 @@
         <v>197</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8801,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8819,13 +8828,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8833,7 +8842,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8856,16 +8865,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>449</v>
+        <v>193</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>452</v>
+        <v>196</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8891,13 +8900,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -8915,7 +8924,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8933,13 +8942,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8947,7 +8956,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8970,16 +8979,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>456</v>
+        <v>193</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9005,13 +9014,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9029,7 +9038,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9047,13 +9056,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9061,7 +9070,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9072,7 +9081,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9084,16 +9093,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9143,13 +9152,13 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
@@ -9161,15 +9170,243 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN64" t="s" s="2">
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -1857,37 +1857,37 @@
     <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -1119,7 +1119,7 @@
 投与が行われた（または「notGiven」属性がtrueの場合は行われなかった）特定の日時または時間間隔。錠剤を飲み込むなど、多くの管理では、dateTimeの使用がより適切である。</t>
   </si>
   <si>
-    <t>【JP-CORE】
+    <t xml:space="preserve">
 投与実施日時であり、JP Coreでは必須である。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -442,7 +442,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>RequestDepartment</t>
+    <t>requestDepartment</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_RequestDepartment}
@@ -459,7 +459,7 @@
 </t>
   </si>
   <si>
-    <t>RequestAuthoredOn</t>
+    <t>requestAuthoredOn</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_RequestAuthoredOn}
@@ -472,7 +472,7 @@
     <t>依頼日時を格納するための拡張</t>
   </si>
   <si>
-    <t>Location</t>
+    <t>location</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Location}
@@ -486,7 +486,7 @@
 実施場所を記述した  Locationリソースへの参照。</t>
   </si>
   <si>
-    <t>Requester</t>
+    <t>requester</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_MedicationAdministration_Requester}
@@ -767,8 +767,8 @@
 コード集で定義された医薬品コードへの情報</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-【JP-CORE】</t>
+    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
+</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -1000,7 +1000,7 @@
     <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
 The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).
 参照のターゲットの予想されるタイプ。 Reference.typeとReference.referenceの両方が入力され、Reference.referenceがFHIR URLである場合、両方が一貫している必要がある。
-タイプは、この参照が参照するタイプであるリソース定義の正規URLです。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可されます（また、論理モデルの参照でのみ使用でき、リソースでは使用できません）。</t>
+タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
   </si>
   <si>
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
@@ -1055,7 +1055,7 @@
   </si>
   <si>
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.
-これは通常、参照されるリソースのResource.textと同じではありません。目的は、参照されているものを特定することであり、完全に説明することではありません。</t>
+これは通常、参照されるリソースのResource.textと同じではない。目的は、参照されているものを特定することであり、完全に説明することではない。</t>
   </si>
   <si>
     <t>Reference.display</t>
@@ -1294,7 +1294,7 @@
   </si>
   <si>
     <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.
-これは、orderまたはinstance-orderのいずれかであるMedicationRequestへの参照。インテントが他の値である場合は、MedicationRequestsを参照しないでください。</t>
+これは、orderまたはinstance-orderのいずれかであるMedicationRequestへの参照。インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
   </si>
   <si>
     <t>これは、インテント（意図）がorderまたはinstance-orderのいずれかであるMedicationRequestへの参照である。
@@ -1391,7 +1391,7 @@
  The dosage instructions should reflect the dosage of the medication that was administered.
 フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。
-投与量や用法のこの指示は、実際に投与される薬の投与量や用法を反映する必要があります。</t>
+投与量や用法のこの指示は、実際に投与される薬の投与量や用法を反映する必要がある。</t>
   </si>
   <si>
     <t>.text</t>
@@ -1456,7 +1456,7 @@
   </si>
   <si>
     <t>One of the reasons this attribute is not used often, is that the method is often pre-coordinated with the route and/or form of administration.  This means the codes used in route or form may pre-coordinate the method in the route code or the form code.  The implementation decision about what coding system to use for route or form code will determine how frequently the method code will be populated e.g. if route or form code pre-coordinate method code, then this attribute will not be populated often; if there is no pre-coordination then method code may  be used frequently.
-この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まります。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性があります。</t>
+この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
   </si>
   <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -1778,9 +1778,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -258,11 +258,11 @@
     <t>患者への薬剤投与記録</t>
   </si>
   <si>
-    <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>患者が薬を消費したり、投与されたりするイベントについて説明します。これは、タブレットを飲み込むのと同じくらい簡単かもしれませんし、長期にわたる注入かもしれません。関連リソースは、このイベントを認可された処方箋と、患者と医療実務家の特定のEncounterに結び付けます。 / Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -284,13 +284,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -303,16 +303,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -323,13 +323,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -342,19 +342,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -374,13 +374,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -400,13 +400,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -438,8 +438,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>requestDepartment</t>
@@ -507,17 +507,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -537,7 +538,7 @@
 ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバーからサーバーに伝播される間、一定のままである。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -596,7 +597,7 @@
 【JP-CORE】　completed or stopped に限定される。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -640,7 +641,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+    <t>薬剤管理が否定される理由を示す一連のコード。 / A set of codes indicating the reason why the MedicationAdministration is negated.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
@@ -667,7 +668,7 @@
  (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
   </si>
   <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
+    <t>投与された場所が発生すると予想されるコード化された概念。 / A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -683,16 +684,16 @@
 Reference</t>
   </si>
   <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
+    <t>管理されたもの / What was administered</t>
+  </si>
+  <si>
+    <t>投与された薬を特定します。これは、薬物の詳細を表すリソースへのリンクか、既知の薬物のリストから薬を識別するコードを運ぶ単純な属性です。 / Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合は、投薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>管理できる物質または製品を識別するコード。 / Codes identifying substance or product that can be administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -726,10 +727,10 @@
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -741,10 +742,10 @@
     <t>MedicationAdministration.medication[x].extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -771,7 +772,7 @@
 </t>
   </si>
   <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -792,16 +793,16 @@
     <t>MedicationAdministration.medication[x].coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -816,13 +817,13 @@
     <t>MedicationAdministration.medication[x].coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -837,13 +838,13 @@
     <t>MedicationAdministration.medication[x].coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -858,13 +859,13 @@
     <t>MedicationAdministration.medication[x].coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -883,16 +884,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -907,16 +908,16 @@
     <t>MedicationAdministration.medication[x].text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -981,7 +982,7 @@
 他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
   </si>
   <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+    <t>絶対URLを使用すると、クラウド/Webコンテキストに適した安定したスケーラブルなアプローチが提供されますが、相対的/論理的な参照を使用すると、閉じたエコシステムの境界を横切る際に使用するのに適した柔軟なアプローチが提供されます。絶対URLは、FHIR Restfulサーバーを指す必要はありませんが、これは好ましいアプローチです。URLが構造 "/[type]/[id]"に適合している場合、参照がFHIR Restfulサーバーへの参照であると想定する必要があります。 / Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
   </si>
   <si>
     <t>Reference.reference</t>
@@ -1003,13 +1004,13 @@
 タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
   </si>
   <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+    <t>この要素は、参照のターゲットのタイプを示すために使用されます。これは、他の要素の中で存在する（またはそうでない）使用される場合があります。場合によっては、ターゲットのタイプは、参照の検査（例：RESTFUL URL）または参照のターゲットを解決することによって決定される場合があります。タイプと参照の両方が提供されている場合、参照は指定したものと同じタイプのリソースに解決するものとします。 / This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1174,10 +1175,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1187,13 +1189,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>Type of performance</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in administering the medication.</t>
+    <t>パフォーマンスの種類 / Type of performance</t>
+  </si>
+  <si>
+    <t>投薬投与におけるパフォーマーの関与の種類を区別します。 / Distinguishes the type of involvement of the performer in the medication administration.</t>
+  </si>
+  <si>
+    <t>個人が薬を投与する際に果たした役割を説明するコード。 / A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1212,10 +1214,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration.</t>
+    <t>投薬を行った人 / Who performed the medication administration</t>
+  </si>
+  <si>
+    <t>投薬投与を誰または何が実行したかを示します。 / Indicates who or what performed the medication administration.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1234,7 +1236,7 @@
 投薬が実施された理由を示すコード</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
+    <t>薬剤管理が行われた理由を示す一連のコード。 / A set of codes indicating the reason why the MedicationAdministration was made.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1365,8 +1367,8 @@
 投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+mad-1:Dosage.DoseまたはDosage.Rate [x]の少なくとも1つがあります。 / SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
   </si>
   <si>
     <t>component-&gt;SubstanceAdministrationEvent</t>
@@ -1411,7 +1413,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -1433,7 +1435,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -1459,7 +1461,7 @@
 この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1485,7 +1487,7 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
+    <t>政権が瞬間的でない場合（レートが存在します）、これは単一の管理の期間にわたって投与される総量を伝えるために指定できます。 / If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
   </si>
   <si>
     <t>.doseQuantity</t>
@@ -1533,7 +1535,7 @@
 投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
   </si>
   <si>
-    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>これには、リクエストのすべてのバージョンの出所が含まれない場合があります。「関連性がある」または重要とみなされるもののみです。これには、この現在のバージョンのリソースに関連する出所を含めてはなりません。（その出所が「関連性のある」変更と見なされる場合、後の更新の一部として追加する必要があります。それまで、_revincludeを使用してこのバージョンを指す出所として直接照会することができます。この要求の歴史的バージョンは、彼らの主題として。 / This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -1875,7 +1877,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -258,11 +258,11 @@
     <t>患者への薬剤投与記録</t>
   </si>
   <si>
-    <t>患者が薬を消費したり、投与されたりするイベントについて説明します。これは、タブレットを飲み込むのと同じくらい簡単かもしれませんし、長期にわたる注入かもしれません。関連リソースは、このイベントを認可された処方箋と、患者と医療実務家の特定のEncounterに結び付けます。 / Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -284,13 +284,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -303,16 +303,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -323,13 +323,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -342,19 +342,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -374,13 +374,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -400,13 +400,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -438,8 +438,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>requestDepartment</t>
@@ -507,18 +507,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -538,7 +537,7 @@
 ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバーからサーバーに伝播される間、一定のままである。</t>
   </si>
   <si>
-    <t>これはビジネス識別子であり、リソース識別子ではありません。 / This is a business identifier, not a resource identifier.</t>
+    <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -597,7 +596,7 @@
 【JP-CORE】　completed or stopped に限定される。</t>
   </si>
   <si>
-    <t>この要素は、リソースを現在有効ではないとマークするコードが含まれているため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
@@ -641,7 +640,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>薬剤管理が否定される理由を示す一連のコード。 / A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
@@ -668,7 +667,7 @@
  (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
   </si>
   <si>
-    <t>投与された場所が発生すると予想されるコード化された概念。 / A coded concept describing where the medication administered is expected to occur.</t>
+    <t>A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -684,16 +683,16 @@
 Reference</t>
   </si>
   <si>
-    <t>管理されたもの / What was administered</t>
-  </si>
-  <si>
-    <t>投与された薬を特定します。これは、薬物の詳細を表すリソースへのリンクか、既知の薬物のリストから薬を識別するコードを運ぶ単純な属性です。 / Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>コードのみが指定されている場合、特定の製品のコードである必要があります。より多くの情報が必要な場合は、投薬リソースの使用をお勧めします。たとえば、フォームまたはロット番号が必要な場合は、投薬リソースを参照する必要があります。 / If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>管理できる物質または製品を識別するコード。 / Codes identifying substance or product that can be administered.</t>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Codes identifying substance or product that can be administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -727,10 +726,10 @@
     <t>MedicationAdministration.medication[x].id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -742,10 +741,10 @@
     <t>MedicationAdministration.medication[x].extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -772,7 +771,7 @@
 </t>
   </si>
   <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -793,16 +792,16 @@
     <t>MedicationAdministration.medication[x].coding.system</t>
   </si>
   <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -817,13 +816,13 @@
     <t>MedicationAdministration.medication[x].coding.version</t>
   </si>
   <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -838,13 +837,13 @@
     <t>MedicationAdministration.medication[x].coding.code</t>
   </si>
   <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -859,13 +858,13 @@
     <t>MedicationAdministration.medication[x].coding.display</t>
   </si>
   <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -884,16 +883,16 @@
 </t>
   </si>
   <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -908,16 +907,16 @@
     <t>MedicationAdministration.medication[x].text</t>
   </si>
   <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>
@@ -982,7 +981,7 @@
 他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
   </si>
   <si>
-    <t>絶対URLを使用すると、クラウド/Webコンテキストに適した安定したスケーラブルなアプローチが提供されますが、相対的/論理的な参照を使用すると、閉じたエコシステムの境界を横切る際に使用するのに適した柔軟なアプローチが提供されます。絶対URLは、FHIR Restfulサーバーを指す必要はありませんが、これは好ましいアプローチです。URLが構造 "/[type]/[id]"に適合している場合、参照がFHIR Restfulサーバーへの参照であると想定する必要があります。 / Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
   </si>
   <si>
     <t>Reference.reference</t>
@@ -1004,13 +1003,13 @@
 タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
   </si>
   <si>
-    <t>この要素は、参照のターゲットのタイプを示すために使用されます。これは、他の要素の中で存在する（またはそうでない）使用される場合があります。場合によっては、ターゲットのタイプは、参照の検査（例：RESTFUL URL）または参照のターゲットを解決することによって決定される場合があります。タイプと参照の両方が提供されている場合、参照は指定したものと同じタイプのリソースに解決するものとします。 / This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>AAリソース（または、論理モデルの場合、論理モデルのURI）。 / Aa resource (or, for logical models, the URI of the logical model).</t>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/resource-types</t>
@@ -1175,11 +1174,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1189,13 +1187,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>パフォーマンスの種類 / Type of performance</t>
-  </si>
-  <si>
-    <t>投薬投与におけるパフォーマーの関与の種類を区別します。 / Distinguishes the type of involvement of the performer in the medication administration.</t>
-  </si>
-  <si>
-    <t>個人が薬を投与する際に果たした役割を説明するコード。 / A code describing the role an individual played in administering the medication.</t>
+    <t>Type of performance</t>
+  </si>
+  <si>
+    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
+  </si>
+  <si>
+    <t>A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1214,10 +1212,10 @@
 </t>
   </si>
   <si>
-    <t>投薬を行った人 / Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>投薬投与を誰または何が実行したかを示します。 / Indicates who or what performed the medication administration.</t>
+    <t>Who performed the medication administration</t>
+  </si>
+  <si>
+    <t>Indicates who or what performed the medication administration.</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1236,7 +1234,7 @@
 投薬が実施された理由を示すコード</t>
   </si>
   <si>
-    <t>薬剤管理が行われた理由を示す一連のコード。 / A set of codes indicating the reason why the MedicationAdministration was made.</t>
+    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1367,8 +1365,8 @@
 投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-mad-1:Dosage.DoseまたはDosage.Rate [x]の少なくとも1つがあります。 / SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
   </si>
   <si>
     <t>component-&gt;SubstanceAdministrationEvent</t>
@@ -1413,7 +1411,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>薬が身体に入る、または体に入るサイトの場所を説明するコード化された概念。 / A coded concept describing the site location the medicine enters into or onto the body.</t>
+    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -1435,7 +1433,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>被験者の体への、またはそれへの治療剤の投与の経路または生理学的経路を説明するコード化された概念。 / A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -1461,7 +1459,7 @@
 この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
   </si>
   <si>
-    <t>薬が投与される手法を説明するコード化された概念。 / A coded concept describing the technique by which the medicine is administered.</t>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1487,7 +1485,7 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>政権が瞬間的でない場合（レートが存在します）、これは単一の管理の期間にわたって投与される総量を伝えるために指定できます。 / If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
+    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
   </si>
   <si>
     <t>.doseQuantity</t>
@@ -1535,7 +1533,7 @@
 投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
   </si>
   <si>
-    <t>これには、リクエストのすべてのバージョンの出所が含まれない場合があります。「関連性がある」または重要とみなされるもののみです。これには、この現在のバージョンのリソースに関連する出所を含めてはなりません。（その出所が「関連性のある」変更と見なされる場合、後の更新の一部として追加する必要があります。それまで、_revincludeを使用してこのバージョンを指す出所として直接照会することができます。この要求の歴史的バージョンは、彼らの主題として。 / This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -1877,7 +1875,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="179.01953125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -593,7 +593,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-CORE】　completed or stopped に限定される。</t>
+【JP-Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -949,7 +949,7 @@
 投与を受ける患者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -605,7 +605,7 @@
     <t>患者への投与状況</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -593,7 +593,7 @@
   <si>
     <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
 通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
-【JP-Core仕様】　completed or stopped に限定される。</t>
+【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="516">
   <si>
     <t>Property</t>
   </si>
@@ -1492,6 +1492,137 @@
   </si>
   <si>
     <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>Not allowed to be used in this context</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.dose.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1843,7 +1974,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN66"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1876,7 +2007,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -9205,17 +9336,15 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>461</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>225</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9264,7 +9393,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>460</v>
+        <v>227</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9276,19 +9405,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>465</v>
+        <v>228</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9296,11 +9425,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9319,16 +9448,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>468</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>469</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>231</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>159</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9366,19 +9495,19 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>467</v>
+        <v>233</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9390,21 +9519,823 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN66" t="s" s="2">
+      <c r="L68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="517">
   <si>
     <t>Property</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
@@ -4481,7 +4484,7 @@
         <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4557,10 +4560,10 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4611,7 +4614,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4629,7 +4632,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4643,7 +4646,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4669,10 +4672,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>159</v>
@@ -4716,7 +4719,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4725,7 +4728,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4743,7 +4746,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4757,7 +4760,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4780,19 +4783,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4841,7 +4844,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4859,13 +4862,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4873,7 +4876,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4899,10 +4902,10 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4953,7 +4956,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4971,7 +4974,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4985,7 +4988,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5011,10 +5014,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5058,7 +5061,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -5067,7 +5070,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5085,7 +5088,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5099,7 +5102,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5125,16 +5128,16 @@
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5183,7 +5186,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5201,13 +5204,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5215,7 +5218,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5241,13 +5244,13 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5297,7 +5300,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5315,13 +5318,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5332,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5355,14 +5358,14 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5411,7 +5414,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5429,13 +5432,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5443,7 +5446,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5469,14 +5472,14 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5525,7 +5528,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5543,13 +5546,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5557,7 +5560,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5580,19 +5583,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5641,7 +5644,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5659,13 +5662,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5673,7 +5676,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5699,16 +5702,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5757,7 +5760,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5775,13 +5778,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5792,7 +5795,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
@@ -5814,7 +5817,7 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>211</v>
@@ -5905,7 +5908,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5928,16 +5931,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5987,7 +5990,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -6002,16 +6005,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6019,7 +6022,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6045,10 +6048,10 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6099,7 +6102,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6117,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6131,7 +6134,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6157,10 +6160,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>159</v>
@@ -6204,7 +6207,7 @@
         <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
@@ -6213,7 +6216,7 @@
         <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6231,7 +6234,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6245,7 +6248,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6271,13 +6274,13 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6327,7 +6330,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6336,7 +6339,7 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6359,7 +6362,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6385,13 +6388,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6417,13 +6420,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6441,7 +6444,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6473,7 +6476,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6499,13 +6502,13 @@
         <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6555,7 +6558,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6573,7 +6576,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6587,7 +6590,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6613,13 +6616,13 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6669,7 +6672,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6701,7 +6704,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6724,16 +6727,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6783,7 +6786,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6798,16 +6801,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6815,7 +6818,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6838,16 +6841,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6897,7 +6900,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6915,10 +6918,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6929,7 +6932,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6952,16 +6955,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7011,7 +7014,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -7026,16 +7029,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7043,7 +7046,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7066,13 +7069,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7123,7 +7126,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7138,16 +7141,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7155,7 +7158,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7181,10 +7184,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7235,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7253,7 +7256,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7267,7 +7270,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7293,10 +7296,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>159</v>
@@ -7349,7 +7352,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7367,7 +7370,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7381,11 +7384,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7407,10 +7410,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>159</v>
@@ -7465,7 +7468,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7497,7 +7500,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7523,10 +7526,10 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7556,10 +7559,10 @@
         <v>197</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7577,7 +7580,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7592,10 +7595,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7609,7 +7612,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7632,13 +7635,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7689,7 +7692,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>86</v>
@@ -7704,10 +7707,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7721,7 +7724,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7747,10 +7750,10 @@
         <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7780,10 +7783,10 @@
         <v>197</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7801,7 +7804,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7816,16 +7819,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7833,7 +7836,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7856,16 +7859,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7915,7 +7918,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7930,24 +7933,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7970,19 +7973,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8031,7 +8034,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8046,16 +8049,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8063,7 +8066,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8086,16 +8089,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8145,7 +8148,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8163,13 +8166,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8177,7 +8180,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8200,16 +8203,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8259,7 +8262,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8274,10 +8277,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8291,7 +8294,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8314,13 +8317,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8371,7 +8374,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8383,13 +8386,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8403,7 +8406,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8429,10 +8432,10 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8483,7 +8486,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8501,7 +8504,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8515,7 +8518,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8541,10 +8544,10 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>159</v>
@@ -8597,7 +8600,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8615,7 +8618,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8629,11 +8632,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8655,10 +8658,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8713,7 +8716,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8745,7 +8748,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8771,10 +8774,10 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8825,7 +8828,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8843,7 +8846,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8857,7 +8860,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8883,13 +8886,13 @@
         <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8918,10 +8921,10 @@
         <v>197</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8939,7 +8942,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8957,13 +8960,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8971,7 +8974,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8997,10 +9000,10 @@
         <v>193</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>196</v>
@@ -9032,10 +9035,10 @@
         <v>197</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9053,7 +9056,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9071,13 +9074,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9085,7 +9088,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9111,13 +9114,13 @@
         <v>193</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9146,10 +9149,10 @@
         <v>197</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9167,7 +9170,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9185,13 +9188,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9199,7 +9202,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9222,16 +9225,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9281,7 +9284,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9299,13 +9302,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9313,7 +9316,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9339,10 +9342,10 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9393,7 +9396,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9411,7 +9414,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9425,7 +9428,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9451,10 +9454,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9498,7 +9501,7 @@
         <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
@@ -9507,7 +9510,7 @@
         <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9525,7 +9528,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9562,19 +9565,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9623,7 +9626,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9641,13 +9644,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9655,7 +9658,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9681,20 +9684,20 @@
         <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>77</v>
@@ -9718,10 +9721,10 @@
         <v>185</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9739,7 +9742,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9757,13 +9760,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9771,7 +9774,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9797,14 +9800,14 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9853,7 +9856,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9871,13 +9874,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9885,7 +9888,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9911,14 +9914,14 @@
         <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9967,7 +9970,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9976,7 +9979,7 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -9985,13 +9988,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9999,7 +10002,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10025,16 +10028,16 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10063,7 +10066,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10081,7 +10084,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10099,13 +10102,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10113,7 +10116,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10136,16 +10139,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10195,7 +10198,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10213,13 +10216,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10227,7 +10230,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10250,16 +10253,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10309,7 +10312,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10327,7 +10330,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -727,6 +727,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4557,13 +4561,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4614,7 +4618,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4632,7 +4636,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4646,7 +4650,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4672,10 +4676,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>159</v>
@@ -4719,7 +4723,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4728,7 +4732,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4746,7 +4750,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4760,7 +4764,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4783,19 +4787,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4844,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4862,13 +4866,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4876,7 +4880,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4899,13 +4903,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4956,7 +4960,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4974,7 +4978,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4988,7 +4992,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5014,10 +5018,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5061,7 +5065,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -5070,7 +5074,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5088,7 +5092,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5102,7 +5106,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5128,16 +5132,16 @@
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5186,7 +5190,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5204,13 +5208,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5218,7 +5222,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5241,16 +5245,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5300,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5318,13 +5322,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5332,7 +5336,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5358,14 +5362,14 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5414,7 +5418,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5432,13 +5436,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5446,7 +5450,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5469,17 +5473,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5528,7 +5532,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5546,13 +5550,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5560,7 +5564,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5583,19 +5587,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5644,7 +5648,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5662,13 +5666,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5676,7 +5680,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5699,19 +5703,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5760,7 +5764,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5778,13 +5782,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5795,7 +5799,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
@@ -5817,7 +5821,7 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>211</v>
@@ -5908,7 +5912,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5931,16 +5935,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5990,7 +5994,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -6005,16 +6009,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6022,7 +6026,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6045,13 +6049,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6102,7 +6106,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6120,7 +6124,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6134,7 +6138,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6160,10 +6164,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>159</v>
@@ -6207,7 +6211,7 @@
         <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
@@ -6216,7 +6220,7 @@
         <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6234,7 +6238,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6248,7 +6252,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6271,16 +6275,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6330,7 +6334,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6339,7 +6343,7 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6362,7 +6366,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6388,13 +6392,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6420,13 +6424,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6444,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6476,7 +6480,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6502,13 +6506,13 @@
         <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6558,7 +6562,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6576,7 +6580,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6590,7 +6594,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6613,16 +6617,16 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6672,7 +6676,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6704,7 +6708,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6727,16 +6731,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6786,7 +6790,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6801,16 +6805,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6818,7 +6822,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6841,16 +6845,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6900,7 +6904,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6918,10 +6922,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6932,7 +6936,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6955,16 +6959,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7014,7 +7018,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -7029,16 +7033,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7046,7 +7050,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7069,13 +7073,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7126,7 +7130,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7141,16 +7145,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7158,7 +7162,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7181,13 +7185,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7238,7 +7242,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7256,7 +7260,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7270,7 +7274,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7296,10 +7300,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>159</v>
@@ -7352,7 +7356,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7370,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7384,11 +7388,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7410,10 +7414,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>159</v>
@@ -7468,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7500,7 +7504,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7526,10 +7530,10 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7559,10 +7563,10 @@
         <v>197</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7580,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7595,10 +7599,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7612,7 +7616,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7635,13 +7639,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7692,7 +7696,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>86</v>
@@ -7707,10 +7711,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7724,7 +7728,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7750,10 +7754,10 @@
         <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7783,10 +7787,10 @@
         <v>197</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7804,7 +7808,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7819,16 +7823,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7836,7 +7840,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7859,16 +7863,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7918,7 +7922,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7933,24 +7937,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7973,19 +7977,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8034,7 +8038,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8049,16 +8053,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8066,7 +8070,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8089,16 +8093,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8148,7 +8152,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8166,13 +8170,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8180,7 +8184,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8203,16 +8207,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8262,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8277,10 +8281,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8294,7 +8298,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8317,13 +8321,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8374,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8386,13 +8390,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8429,13 +8433,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8486,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8504,7 +8508,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8518,7 +8522,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8544,10 +8548,10 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>159</v>
@@ -8600,7 +8604,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8618,7 +8622,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8632,11 +8636,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8658,10 +8662,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8716,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8748,7 +8752,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8771,13 +8775,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8828,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8846,7 +8850,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8886,13 +8890,13 @@
         <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8921,10 +8925,10 @@
         <v>197</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8942,7 +8946,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8960,13 +8964,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8974,7 +8978,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9000,10 +9004,10 @@
         <v>193</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>196</v>
@@ -9035,10 +9039,10 @@
         <v>197</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9056,7 +9060,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9074,13 +9078,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9088,7 +9092,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9114,13 +9118,13 @@
         <v>193</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9149,10 +9153,10 @@
         <v>197</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9170,7 +9174,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9188,13 +9192,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9202,7 +9206,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9225,16 +9229,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9284,7 +9288,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9302,13 +9306,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9316,7 +9320,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9339,13 +9343,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9396,7 +9400,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9414,7 +9418,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9428,7 +9432,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9454,10 +9458,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9501,7 +9505,7 @@
         <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
@@ -9510,7 +9514,7 @@
         <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9528,7 +9532,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9542,7 +9546,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9565,19 +9569,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9626,7 +9630,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9644,13 +9648,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9658,7 +9662,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9684,20 +9688,20 @@
         <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>77</v>
@@ -9721,10 +9725,10 @@
         <v>185</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9742,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9760,13 +9764,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9774,7 +9778,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9797,17 +9801,17 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9856,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9874,13 +9878,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9888,7 +9892,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9914,14 +9918,14 @@
         <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9970,7 +9974,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9979,7 +9983,7 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -9988,13 +9992,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10002,7 +10006,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10028,16 +10032,16 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10066,7 +10070,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10084,7 +10088,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10102,13 +10106,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10116,7 +10120,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10139,16 +10143,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10198,7 +10202,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10216,13 +10220,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10230,7 +10234,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10253,16 +10257,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10312,7 +10316,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10330,7 +10334,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/MedicationAdministration</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministrationBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -679,17 +679,22 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+    <t>What medication was supplied　医薬品</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
+投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
+ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
++なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
++ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
     <t>Codes identifying substance or product that can be administered.</t>
@@ -726,226 +731,10 @@
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
-    <t>MedicationAdministration.medication[x].id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system コード集で定義された医薬品コード</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.
-コード集で定義された医薬品コードへの情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.
-</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
-  </si>
-  <si>
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -972,106 +761,10 @@
     <t>PID-3-Patient ID List</t>
   </si>
   <si>
-    <t>MedicationAdministration.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL　リテラル参照、相対、内部、または絶対URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.
-他のリソースが見つかった場合そのいリソース箇所への参照。参照は相対参照である場合がある。その場合、参照はサービスベースURLに相対的であるか、リソースが見つかった場所を解決する絶対URL。参照はバージョン固有である場合とそうでない場合がある。参照がFHIR　RESTfulサーバーを参照していない場合は、バージョン固有であると見なす必要がある。内部フラグメント参照（「＃」で始まる）は、含まれているリソースを参照する。</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")　参照リソースのタイプ</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).
-参照のターゲットの予想されるタイプ。 Reference.typeとReference.referenceの両方が入力され、Reference.referenceがFHIR URLである場合、両方が一貫している必要がある。
-タイプは、この参照が参照するタイプであるリソース定義の正規URLである。参照は、http：//hl7.org/fhir/StructureDefinition/に関連するURLとなる。例： 「患者」リソースの場合は、http://hl7.org/fhir/StructureDefinition/Patient　となる。絶対URLは、論理モデルでのみ許可される（また、論理モデルの参照でのみ使用でき、リソースでは使用できない）。</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known　リテラル参照（reference要素）で記述できない場合の論理ID参照</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.
-ターゲットリソースの識別子。これは、他のリソースを直接参照する方法がない場合に使用される。これは、リソースが表すエンティティがFHIRサーバーを介して利用できないため、またはリソースの作成者が既知の識別子を実際の場所に変換する方法がないためである 。 Reference.identifierが実際にFHIRインスタンスとして公開されているものを指している必要はないが、FHIRインスタンスとして公開されることが期待されるビジネス概念を指している必要があり、そのインスタンスは参照で許可されているFHIRリソースタイプとなる。</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).
-参照の代わりに識別子が提供される場合、参照を処理するシステムは、識別子が使用されるビジネスコンテキストを理解している場合にのみ、識別子を参照に解決できる。これはグローバルな場合もあるが（たとえば、国民ID）、そうでない場合もある。このため、参照を操作するために説明されている便利なメカニズム（チェーン、インクルードなど）はどれも不可能であり、サーバーが参照を解決できると期待されるべきではない。サーバーは、識別子ベースの参照をそのまま受け入れ、解決したり、拒否したりする場合がある。CapabilityStatement.rest.resource.referencePolicyを参照。
-識別子とリテラル参照の両方が提供されている場合は、リテラル参照が優先される。リソースを処理するアプリケーションは、識別子がリテラル参照と一致することを確認できるが、確認することは必須ではない。
-論理参照をリテラル参照に変換するアプリケーションは、論理参照を存在させたままにするか、削除するかを選択できる。
-参照は、FHIRリソースとして表現できる可能性のある構造を指すことを目的としているが、実際のFHIRリソースインスタンスとして存在する必要はない。ただし、アプリケーションが参照のターゲットを実際に見つけたい場合を除く。識別子と呼ばれるコンテンツは、参照に許可されるリソースタイプの制限によって暗示される論理的な制約を満たす必要がある。たとえば、タイプがReference（Observation | DiagnosticReport）の場合、薬の処方箋の識別子を送信することは正当ではない。 Reference.identifierのユースケースの1つは、FHIR表現が存在しない状況である（タイプはReference（Any）である）。</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource　リソースの代替テキスト</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.
-リソース参照に加えてリソースを識別するプレーンテキストの説明。</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.
-これは通常、参照されるリソースのResource.textと同じではない。目的は、参照されているものを特定することであり、完全に説明することではない。</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1171,7 +864,32 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1215,7 +933,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1259,7 +977,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common)
 </t>
   </si>
   <si>
@@ -1418,10 +1136,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1440,10 +1155,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1455,15 +1167,13 @@
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>How drug was administered　投与方法</t>
-  </si>
-  <si>
-    <t>A coded value indicating the method by which the medication is intended to be or was introduced into or on the body.  This attribute will most often NOT be populated.  It is most commonly used for injections.  For example, Slow Push, Deep IV.
-薬物が体内に導入されることを意図している、または体内に導入された方法を示すコード化された値。ほとんどの場合、この属性は入力されないが、注射では最も一般的に使用される。たとえば、スロープッシュ（ゆっくり注射）、ディープIV（深部静脈注射）。</t>
-  </si>
-  <si>
-    <t>One of the reasons this attribute is not used often, is that the method is often pre-coordinated with the route and/or form of administration.  This means the codes used in route or form may pre-coordinate the method in the route code or the form code.  The implementation decision about what coding system to use for route or form code will determine how frequently the method code will be populated e.g. if route or form code pre-coordinate method code, then this attribute will not be populated often; if there is no pre-coordination then method code may  be used frequently.
-この属性がふつう使用されない理由の1つは、メソッドが管理のルートや形式と事前に調整されていることが多いためである。これは、ルートまたはフォーム（剤型）で使用されるコードが、ルートコードまたは剤型コードによってメソッドが事前に決まる可能性があることを意味している。ルートコードまたは剤型コードに使用するコーディングシステムに関する実装の決定により、メソッドコードが入力される頻度が決まる。ルートコードまたは剤型コードによってメソッドコードが事前に決まる場合、この属性はふつう入力されない。決まらない場合は、メソッドコードが使用される可能性がある。</t>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
     <t>A coded concept describing the technique by which the medicine is administered.</t>
@@ -1478,10 +1188,232 @@
     <t>RXR-4-Administration Method</t>
   </si>
   <si>
+    <t>MedicationAdministration.dosage.method.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>unitDigit1</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
+  </si>
+  <si>
+    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>unitDigit2</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.method.text</t>
+  </si>
+  <si>
+    <t>投与⽅法のテキスト表現</t>
+  </si>
+  <si>
+    <t>投与⽅法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
+  </si>
+  <si>
+    <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
+  </si>
+  <si>
+    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationAdministration.dosage.dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
   </si>
   <si>
@@ -1492,151 +1424,24 @@
 1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
-    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.dosage.rate[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
 </t>
-  </si>
-  <si>
-    <t>Numerical value (with implicit precision)</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>Not allowed to be used in this context</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.unit</t>
-  </si>
-  <si>
-    <t>Unit representation</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x]</t>
-  </si>
-  <si>
-    <t>Ratio
-Quantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1655,6 +1460,26 @@
   </si>
   <si>
     <t>RXA-12-Administered Per (Time Unit)</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
+</t>
+  </si>
+  <si>
+    <t>単位時間内での薬剤の容量</t>
+  </si>
+  <si>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1981,7 +1806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN73"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1990,7 +1815,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.0859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2013,8 +1838,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4333,16 +4158,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4371,23 +4196,23 @@
         <v>197</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
@@ -4405,16 +4230,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4425,14 +4250,14 @@
         <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
@@ -4450,13 +4275,13 @@
         <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4485,10 +4310,10 @@
         <v>110</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4521,16 +4346,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4538,7 +4363,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4546,7 +4371,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4558,18 +4383,20 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4618,10 +4445,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4630,19 +4457,19 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4650,18 +4477,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4673,16 +4500,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4720,43 +4547,43 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4764,7 +4591,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4772,7 +4599,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>79</v>
@@ -4784,23 +4611,21 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4848,7 +4673,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4866,13 +4691,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4880,7 +4705,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4888,7 +4713,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4900,18 +4725,20 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4960,10 +4787,10 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4972,19 +4799,19 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4992,11 +4819,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5012,20 +4839,18 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5062,19 +4887,19 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5086,19 +4911,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5106,7 +4931,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5114,7 +4939,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -5126,23 +4951,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5190,7 +5011,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5202,19 +5023,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5222,18 +5043,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5242,19 +5063,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5304,31 +5125,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5336,40 +5157,42 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5418,31 +5241,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5450,7 +5273,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5458,7 +5281,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5470,21 +5293,19 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5508,13 +5329,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5532,7 +5353,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5547,16 +5368,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5564,7 +5385,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5572,7 +5393,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5587,20 +5408,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5648,10 +5465,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5663,16 +5480,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5680,7 +5497,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5691,7 +5508,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5700,23 +5517,19 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5740,13 +5553,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5764,13 +5577,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5779,16 +5592,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5796,11 +5609,9 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5809,7 +5620,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5818,19 +5629,19 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>212</v>
+        <v>302</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5880,13 +5691,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5895,24 +5706,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>218</v>
+        <v>304</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5920,7 +5731,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5932,21 +5743,23 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5994,10 +5807,10 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -6009,16 +5822,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6026,7 +5839,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6037,7 +5850,7 @@
         <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6049,15 +5862,17 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6106,31 +5921,31 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6138,11 +5953,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6161,16 +5976,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>232</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6208,19 +6023,19 @@
         <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6232,13 +6047,13 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>230</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6252,7 +6067,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6272,20 +6087,18 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6334,7 +6147,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6343,16 +6156,16 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6366,7 +6179,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6386,20 +6199,18 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6424,13 +6235,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6448,7 +6259,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6460,13 +6271,13 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6480,18 +6291,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6500,19 +6311,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6562,25 +6373,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6594,41 +6405,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6676,19 +6489,19 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
@@ -6708,7 +6521,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6731,17 +6544,15 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6790,7 +6601,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6805,16 +6616,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6822,7 +6633,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6833,7 +6644,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6845,16 +6656,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6880,13 +6691,11 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6904,13 +6713,13 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
@@ -6922,13 +6731,13 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6936,7 +6745,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6944,7 +6753,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6956,19 +6765,19 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>345</v>
+        <v>193</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>348</v>
+        <v>196</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6994,13 +6803,11 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7018,10 +6825,10 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -7033,16 +6840,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7050,7 +6857,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7061,7 +6868,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -7070,19 +6877,23 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>193</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="M45" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7106,13 +6917,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -7130,13 +6941,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -7145,16 +6956,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>357</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7162,7 +6973,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7185,13 +6996,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7242,7 +7053,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7260,7 +7071,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7274,7 +7085,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7300,10 +7111,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>159</v>
@@ -7344,19 +7155,19 @@
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7374,7 +7185,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7388,11 +7199,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7405,25 +7216,25 @@
         <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>131</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>159</v>
+        <v>370</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>160</v>
+        <v>371</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7460,19 +7271,17 @@
         <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7484,19 +7293,19 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>129</v>
+        <v>374</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7504,9 +7313,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7524,19 +7335,23 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7560,13 +7375,11 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7584,13 +7397,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7599,7 +7412,7 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>373</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>374</v>
@@ -7608,7 +7421,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7616,7 +7429,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7624,7 +7437,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -7636,16 +7449,16 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>376</v>
+        <v>264</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>378</v>
+        <v>266</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7696,10 +7509,10 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>375</v>
+        <v>267</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -7708,13 +7521,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>380</v>
+        <v>268</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7728,11 +7541,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7751,15 +7564,17 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>382</v>
+        <v>270</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7784,31 +7599,31 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7820,19 +7635,19 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>268</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7840,7 +7655,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7848,10 +7663,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7860,27 +7675,29 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>390</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>77</v>
@@ -7922,13 +7739,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -7937,24 +7754,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7974,23 +7791,21 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8038,7 +7853,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8053,16 +7868,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8070,7 +7885,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8081,7 +7896,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8090,21 +7905,21 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>408</v>
+        <v>106</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8152,13 +7967,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -8170,13 +7985,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8184,7 +7999,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8195,7 +8010,7 @@
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8204,21 +8019,21 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8266,13 +8081,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -8281,16 +8096,16 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8298,7 +8113,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8318,19 +8133,23 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>354</v>
+        <v>415</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8390,19 +8209,19 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>423</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8410,9 +8229,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8430,19 +8251,23 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>226</v>
+        <v>367</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8466,13 +8291,11 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8490,31 +8313,31 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>229</v>
+        <v>373</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8522,18 +8345,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8545,17 +8368,15 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8604,25 +8425,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8636,11 +8457,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>364</v>
+        <v>156</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8653,26 +8474,24 @@
         <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>365</v>
+        <v>270</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>366</v>
+        <v>271</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8708,19 +8527,19 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>365</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>367</v>
+        <v>272</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8738,7 +8557,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8752,7 +8571,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8760,7 +8579,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>86</v>
@@ -8772,25 +8591,29 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>77</v>
@@ -8832,7 +8655,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8850,13 +8673,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8864,7 +8687,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8884,19 +8707,19 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8922,13 +8745,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8946,7 +8769,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>432</v>
+        <v>397</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8964,13 +8787,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8978,7 +8801,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8998,21 +8821,21 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9036,13 +8859,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9060,7 +8883,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9078,13 +8901,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9092,7 +8915,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9112,21 +8935,21 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9150,13 +8973,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9174,7 +8997,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9192,13 +9015,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9206,7 +9029,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9226,21 +9049,23 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9288,7 +9113,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9306,13 +9131,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>460</v>
+        <v>421</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9320,7 +9145,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9340,19 +9165,23 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>227</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9400,7 +9229,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>229</v>
+        <v>433</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9412,19 +9241,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>230</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9432,18 +9261,18 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9455,16 +9284,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>131</v>
+        <v>437</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>232</v>
+        <v>438</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>233</v>
+        <v>439</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>159</v>
+        <v>440</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9502,43 +9331,43 @@
         <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>235</v>
+        <v>436</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>137</v>
+        <v>441</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>230</v>
+        <v>442</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9546,7 +9375,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9566,23 +9395,21 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9618,19 +9445,17 @@
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AB67" s="2"/>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9648,13 +9473,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9662,9 +9487,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9673,36 +9500,34 @@
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P68" t="s" s="2">
-        <v>477</v>
-      </c>
+      <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9722,13 +9547,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>478</v>
+        <v>77</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>479</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9746,7 +9571,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9755,22 +9580,22 @@
         <v>86</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>98</v>
+        <v>455</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>482</v>
+        <v>129</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9778,7 +9603,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9789,7 +9614,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9798,21 +9623,21 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>226</v>
+        <v>458</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9860,13 +9685,13 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
@@ -9878,471 +9703,15 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X71" s="2"/>
-      <c r="Y71" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN73" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -556,7 +556,7 @@
   </si>
   <si>
     <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.
-このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダーセット、またはその他の定義。</t>
+このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
   </si>
   <si>
     <t>Event.instantiates</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -1440,8 +1440,8 @@
     <t>MedicationAdministration.dosage.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
-</t>
+    <t>Ratio
+Quantity</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>
@@ -1480,6 +1480,19 @@
   </si>
   <si>
     <t>RTO</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>投与速度(量/時間)を指定する</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1806,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN69"/>
+  <dimension ref="A1:AN70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9603,9 +9616,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9614,7 +9629,7 @@
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -9632,10 +9647,10 @@
         <v>459</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9685,33 +9700,147 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -534,7 +534,7 @@
   </si>
   <si>
     <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバーからサーバーに伝播される間、一定のままである。</t>
+ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -634,7 +634,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>example</t>
@@ -768,12 +768,12 @@
 </t>
   </si>
   <si>
-    <t>Encounter or Episode of Care administered as part of　エンカウンター、または一部として実施されるケアエピソード</t>
+    <t>Encounter or Episode of Care administered as part of　Encounter、または一部として実施されるケアエピソード</t>
   </si>
   <si>
     <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.
 投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
-受診情報や入院情報を表すエンカウンターへの参照。</t>
+受診情報や入院情報を表すEncounterへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1071,7 +1071,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
-*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
+*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1170,7 +1170,7 @@
     <t>投与方法</t>
   </si>
   <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
   </si>
   <si>
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
@@ -1398,7 +1398,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -1441,7 +1441,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity</t>
+Quantity {SimpleQuantity}</t>
   </si>
   <si>
     <t>Dose quantity per unit of time　単位時間あたりの用量</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -728,7 +728,7 @@
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1136,7 +1136,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1155,7 +1155,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1244,7 +1244,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding.id</t>
@@ -1380,7 +1380,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1852,7 +1852,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="545">
   <si>
     <t>Property</t>
   </si>
@@ -526,27 +526,303 @@
     <t>MedicationAdministration.identifier</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>External identifier 外部識別子</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>orderInRp</t>
+  </si>
+  <si>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
+  </si>
+  <si>
+    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番</t>
+  </si>
+  <si>
+    <t>剤グループ内連番。</t>
   </si>
   <si>
     <t>MedicationAdministration.instantiates</t>
@@ -599,9 +875,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>患者への投与状況</t>
   </si>
   <si>
@@ -621,10 +894,6 @@
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason administration not performed　実施されていない理由</t>
@@ -864,32 +1133,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1194,9 +1438,6 @@
     <t>MedicationAdministration.dosage.method.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
@@ -1214,10 +1455,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1819,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1851,7 +2088,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3478,7 +3715,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -3493,16 +3730,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3540,16 +3777,14 @@
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>162</v>
@@ -3567,13 +3802,13 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3584,18 +3819,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3604,18 +3841,20 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3664,7 +3903,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3679,13 +3918,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3696,7 +3935,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3707,7 +3946,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3716,16 +3955,16 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3776,25 +4015,25 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3808,39 +4047,39 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3866,55 +4105,55 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3922,7 +4161,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3933,30 +4172,32 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3980,13 +4221,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -4004,13 +4245,13 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -4019,16 +4260,16 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4036,7 +4277,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4056,19 +4297,23 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4092,31 +4337,31 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4134,13 +4379,13 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4148,7 +4393,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4171,30 +4416,32 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>77</v>
@@ -4206,32 +4453,34 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AB21" s="2"/>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -4243,16 +4492,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4260,11 +4509,9 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4285,16 +4532,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4308,7 +4555,7 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4320,34 +4567,34 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4359,16 +4606,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4376,7 +4623,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4384,7 +4631,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4399,17 +4646,15 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4458,10 +4703,10 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4473,13 +4718,13 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>232</v>
@@ -4510,7 +4755,7 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>234</v>
@@ -4522,7 +4767,7 @@
         <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4572,7 +4817,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4587,13 +4832,13 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>240</v>
@@ -4604,9 +4849,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4627,16 +4874,16 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4686,7 +4933,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4701,13 +4948,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4718,7 +4965,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4726,7 +4973,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4738,20 +4985,18 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4800,10 +5045,10 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4812,19 +5057,19 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4832,11 +5077,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4852,18 +5097,20 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>256</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4900,19 +5147,19 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4924,19 +5171,19 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4944,7 +5191,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4961,22 +5208,26 @@
         <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5000,13 +5251,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5024,7 +5275,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5036,19 +5287,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5056,18 +5307,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -5076,21 +5327,23 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5114,13 +5367,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5138,31 +5391,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5170,55 +5423,55 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>77</v>
@@ -5254,31 +5507,31 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5286,7 +5539,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5294,7 +5547,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
@@ -5306,18 +5559,20 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5330,7 +5585,7 @@
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5342,13 +5597,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5366,7 +5621,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5381,16 +5636,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5398,7 +5653,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5406,7 +5661,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5421,13 +5676,13 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5478,10 +5733,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5493,16 +5748,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5510,7 +5765,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5521,7 +5776,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5530,18 +5785,20 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5566,13 +5823,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5590,13 +5847,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5605,16 +5862,16 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>298</v>
+        <v>240</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5622,18 +5879,20 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5645,16 +5904,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>301</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5704,7 +5963,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5719,24 +5978,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>169</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>170</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5759,20 +6018,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5820,7 +6075,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>308</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5832,19 +6087,19 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>181</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5852,11 +6107,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5875,16 +6130,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5922,19 +6177,19 @@
         <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -5946,19 +6201,19 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>181</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5966,7 +6221,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5977,30 +6232,32 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>324</v>
+        <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6024,13 +6281,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6048,13 +6305,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6063,16 +6320,16 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6080,7 +6337,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6100,19 +6357,23 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>256</v>
+        <v>198</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>199</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6136,13 +6397,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6160,7 +6421,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>206</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6172,19 +6433,19 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>333</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>196</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6192,7 +6453,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>208</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6200,7 +6461,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>86</v>
@@ -6212,31 +6473,35 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>77</v>
@@ -6272,7 +6537,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6284,19 +6549,19 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6304,18 +6569,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6324,19 +6589,19 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6350,7 +6615,7 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>77</v>
@@ -6386,31 +6651,31 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6418,43 +6683,39 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6502,31 +6763,31 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>129</v>
+        <v>231</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6534,7 +6795,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>233</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6554,18 +6815,20 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6614,7 +6877,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6632,13 +6895,13 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>341</v>
+        <v>239</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6646,7 +6909,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6657,7 +6920,7 @@
         <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6666,20 +6929,18 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6704,11 +6965,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6726,13 +6989,13 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
@@ -6741,16 +7004,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>347</v>
+        <v>264</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6758,7 +7021,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6769,7 +7032,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6778,20 +7041,18 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6816,11 +7077,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6838,13 +7101,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6853,16 +7116,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6870,7 +7133,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6878,7 +7141,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
@@ -6887,26 +7150,24 @@
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>272</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6930,13 +7191,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>360</v>
+        <v>276</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6954,10 +7215,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -6969,16 +7230,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>278</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>280</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6986,7 +7247,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6997,7 +7258,7 @@
         <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7009,15 +7270,17 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7042,13 +7305,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7066,31 +7329,31 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7098,18 +7361,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7121,17 +7384,15 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7156,49 +7417,49 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7212,7 +7473,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7220,10 +7481,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7235,20 +7496,18 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7272,35 +7531,35 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7309,16 +7568,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7326,17 +7585,17 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7351,20 +7610,18 @@
         <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>367</v>
+        <v>198</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>377</v>
+        <v>298</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>378</v>
+        <v>299</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7390,9 +7647,11 @@
       <c r="W49" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X49" s="2"/>
+      <c r="X49" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>381</v>
+        <v>311</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7410,13 +7669,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7425,16 +7684,16 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7442,7 +7701,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7450,7 +7709,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
@@ -7462,18 +7721,20 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7522,10 +7783,10 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -7534,19 +7795,19 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7554,18 +7815,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7577,16 +7838,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>322</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7624,43 +7885,43 @@
         <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>365</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7668,7 +7929,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7676,10 +7937,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7688,29 +7949,27 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>77</v>
@@ -7752,13 +8011,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -7770,13 +8029,13 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7784,7 +8043,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7792,7 +8051,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
@@ -7807,16 +8066,16 @@
         <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7866,10 +8125,10 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7881,16 +8140,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7898,7 +8157,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7909,7 +8168,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7921,18 +8180,16 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>106</v>
+        <v>344</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7980,13 +8237,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -7995,16 +8252,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8012,7 +8269,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8032,21 +8289,19 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>409</v>
+        <v>179</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8094,7 +8349,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>180</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8106,19 +8361,19 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>412</v>
+        <v>181</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8126,18 +8381,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>77</v>
@@ -8146,23 +8401,21 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>415</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>416</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>417</v>
+        <v>184</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8210,31 +8463,31 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>420</v>
+        <v>186</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8242,44 +8495,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8304,11 +8555,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8326,7 +8579,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8338,19 +8591,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8358,7 +8611,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8381,13 +8634,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>265</v>
+        <v>359</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>266</v>
+        <v>360</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8414,13 +8667,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8438,7 +8691,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>267</v>
+        <v>358</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8450,13 +8703,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>268</v>
+        <v>364</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8470,18 +8723,18 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8490,20 +8743,18 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>366</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>270</v>
+        <v>367</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8540,37 +8791,37 @@
         <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8584,7 +8835,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8592,10 +8843,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8604,29 +8855,25 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>77</v>
@@ -8644,13 +8891,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8668,13 +8915,13 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -8683,16 +8930,16 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8700,7 +8947,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8711,7 +8958,7 @@
         <v>78</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
@@ -8720,19 +8967,19 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>264</v>
+        <v>380</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8782,13 +9029,13 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
@@ -8797,24 +9044,24 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8834,20 +9081,22 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>106</v>
+        <v>389</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8896,7 +9145,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8911,16 +9160,16 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8928,7 +9177,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8939,7 +9188,7 @@
         <v>78</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8948,21 +9197,21 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>264</v>
+        <v>398</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9010,13 +9259,13 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
@@ -9028,13 +9277,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9042,7 +9291,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9053,7 +9302,7 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9062,23 +9311,21 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9126,13 +9373,13 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
@@ -9141,16 +9388,16 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9158,7 +9405,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9178,23 +9425,19 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9242,7 +9485,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9254,19 +9497,19 @@
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>413</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9274,7 +9517,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9297,17 +9540,15 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>438</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9356,7 +9597,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>436</v>
+        <v>180</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9365,22 +9606,22 @@
         <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>441</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>442</v>
+        <v>181</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9388,18 +9629,18 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9411,16 +9652,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>445</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>446</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>447</v>
+        <v>184</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>448</v>
+        <v>159</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9458,41 +9699,43 @@
         <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>444</v>
+        <v>186</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>449</v>
+        <v>181</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9500,43 +9743,43 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>452</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>453</v>
+        <v>355</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>453</v>
+        <v>356</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9584,31 +9827,31 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>444</v>
+        <v>357</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>455</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>456</v>
+        <v>129</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9616,11 +9859,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9641,17 +9882,15 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>458</v>
+        <v>177</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9700,7 +9939,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9709,22 +9948,22 @@
         <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>441</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9732,7 +9971,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9743,7 +9982,7 @@
         <v>78</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9755,16 +9994,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>462</v>
+        <v>198</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9790,13 +10029,11 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X70" s="2"/>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -9814,13 +10051,13 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
@@ -9832,15 +10069,3103 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AB75" s="2"/>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X76" s="2"/>
+      <c r="Y76" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X84" s="2"/>
+      <c r="Y84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AB94" s="2"/>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -1398,7 +1398,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="597">
   <si>
     <t>Property</t>
   </si>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>患者への薬剤投与記録</t>
@@ -2412,13 +2416,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2484,10 +2488,10 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>79</v>
@@ -2501,10 +2505,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2515,7 +2519,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2524,19 +2528,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2586,13 +2590,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2618,10 +2622,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2632,7 +2636,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2641,16 +2645,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2701,19 +2705,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2733,10 +2737,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2747,28 +2751,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2818,19 +2822,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2850,10 +2854,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2864,7 +2868,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2876,16 +2880,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2911,13 +2915,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -2935,19 +2939,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2967,21 +2971,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2993,16 +2997,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3052,25 +3056,25 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -3084,14 +3088,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3110,16 +3114,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3169,7 +3173,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3187,7 +3191,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -3201,10 +3205,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3227,13 +3231,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3272,17 +3276,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3294,7 +3298,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3314,13 +3318,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -3330,7 +3334,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -3342,13 +3346,13 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3399,7 +3403,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3408,10 +3412,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3431,13 +3435,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3447,7 +3451,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3459,13 +3463,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3516,7 +3520,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3525,10 +3529,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3548,13 +3552,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3564,7 +3568,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3576,13 +3580,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3633,7 +3637,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3642,10 +3646,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3665,13 +3669,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3693,13 +3697,13 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3750,7 +3754,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3759,10 +3763,10 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3782,14 +3786,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3802,25 +3806,25 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3869,7 +3873,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3881,13 +3885,13 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3901,10 +3905,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3912,7 +3916,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3927,16 +3931,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3974,17 +3978,17 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3996,16 +4000,16 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -4016,23 +4020,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -4044,16 +4048,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4103,7 +4107,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4115,16 +4119,16 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4135,10 +4139,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4149,7 +4153,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4161,13 +4165,13 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4218,13 +4222,13 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
@@ -4236,7 +4240,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4250,14 +4254,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4276,16 +4280,16 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4323,19 +4327,19 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4347,13 +4351,13 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4367,10 +4371,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4381,31 +4385,31 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4430,13 +4434,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4454,31 +4458,31 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4486,10 +4490,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4500,7 +4504,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4509,22 +4513,22 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4549,13 +4553,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4573,31 +4577,31 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4605,10 +4609,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4616,10 +4620,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4628,35 +4632,35 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>79</v>
@@ -4692,31 +4696,31 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4724,10 +4728,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4735,10 +4739,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4747,19 +4751,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4773,7 +4777,7 @@
         <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>79</v>
@@ -4809,31 +4813,31 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4841,10 +4845,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4855,7 +4859,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4864,16 +4868,16 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4924,31 +4928,31 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4956,10 +4960,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4970,7 +4974,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4979,19 +4983,19 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5041,31 +5045,31 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5073,13 +5077,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -5101,16 +5105,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5160,7 +5164,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5172,16 +5176,16 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5192,10 +5196,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5206,7 +5210,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5218,13 +5222,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5275,13 +5279,13 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -5293,7 +5297,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5307,14 +5311,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5333,16 +5337,16 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5380,19 +5384,19 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5404,13 +5408,13 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5424,10 +5428,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5438,31 +5442,31 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5487,13 +5491,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5511,31 +5515,31 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5543,10 +5547,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5557,7 +5561,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5566,22 +5570,22 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5606,13 +5610,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5630,31 +5634,31 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5662,10 +5666,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5673,10 +5677,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5685,35 +5689,35 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>79</v>
@@ -5749,31 +5753,31 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5781,10 +5785,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5792,10 +5796,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5804,19 +5808,19 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5830,7 +5834,7 @@
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>79</v>
@@ -5866,31 +5870,31 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5898,10 +5902,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5912,7 +5916,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5921,16 +5925,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5981,31 +5985,31 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6013,10 +6017,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6027,7 +6031,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6036,19 +6040,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6098,31 +6102,31 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6130,23 +6134,23 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6158,16 +6162,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6217,7 +6221,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6229,16 +6233,16 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6249,10 +6253,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6263,7 +6267,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6275,13 +6279,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6332,13 +6336,13 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -6350,7 +6354,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6364,14 +6368,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6390,16 +6394,16 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6437,19 +6441,19 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6461,13 +6465,13 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6481,10 +6485,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6495,31 +6499,31 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6544,13 +6548,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6568,31 +6572,31 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6600,10 +6604,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6614,7 +6618,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6623,22 +6627,22 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6663,13 +6667,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6687,31 +6691,31 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6719,10 +6723,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6730,10 +6734,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6742,35 +6746,35 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>79</v>
@@ -6806,31 +6810,31 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6838,10 +6842,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6849,10 +6853,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6861,19 +6865,19 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6887,7 +6891,7 @@
         <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>79</v>
@@ -6923,31 +6927,31 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6955,10 +6959,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6969,7 +6973,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6978,16 +6982,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7038,31 +7042,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7070,10 +7074,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7084,7 +7088,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -7093,19 +7097,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7155,31 +7159,31 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7187,10 +7191,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7210,16 +7214,16 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7270,7 +7274,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7282,13 +7286,13 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7302,10 +7306,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7325,16 +7329,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7385,7 +7389,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7397,13 +7401,13 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7417,10 +7421,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7428,31 +7432,31 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7478,13 +7482,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7502,31 +7506,31 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7534,10 +7538,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7560,16 +7564,16 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7595,13 +7599,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7619,7 +7623,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7631,19 +7635,19 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7651,10 +7655,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7665,7 +7669,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7677,13 +7681,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7710,13 +7714,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7734,25 +7738,25 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7766,10 +7770,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7777,10 +7781,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7789,19 +7793,19 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7827,53 +7831,53 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7881,23 +7885,23 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7906,19 +7910,19 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7944,13 +7948,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7968,31 +7972,31 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8000,10 +8004,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8011,10 +8015,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8023,19 +8027,19 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8085,31 +8089,31 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8117,10 +8121,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8131,7 +8135,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8143,16 +8147,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8202,31 +8206,31 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8234,10 +8238,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8260,16 +8264,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8319,7 +8323,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8331,16 +8335,16 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8351,10 +8355,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8362,10 +8366,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8374,19 +8378,19 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8436,31 +8440,31 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8468,10 +8472,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8491,16 +8495,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8551,7 +8555,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8563,19 +8567,19 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8583,10 +8587,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8597,7 +8601,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8609,13 +8613,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8666,13 +8670,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8684,7 +8688,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8698,14 +8702,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8724,16 +8728,16 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8783,7 +8787,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8795,13 +8799,13 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8815,14 +8819,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8835,25 +8839,25 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8902,7 +8906,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8914,13 +8918,13 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8934,10 +8938,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8948,7 +8952,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8960,13 +8964,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8993,13 +8997,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9017,25 +9021,25 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9049,10 +9053,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9060,10 +9064,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9072,16 +9076,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9132,25 +9136,25 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9164,10 +9168,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9190,13 +9194,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9223,13 +9227,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9247,7 +9251,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9259,19 +9263,19 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9279,10 +9283,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9305,16 +9309,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9364,7 +9368,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9376,30 +9380,30 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9410,7 +9414,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9422,19 +9426,19 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9483,31 +9487,31 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9515,10 +9519,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9541,16 +9545,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9600,7 +9604,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9612,19 +9616,19 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9632,10 +9636,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9658,16 +9662,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9717,7 +9721,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9729,13 +9733,13 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9749,10 +9753,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9763,7 +9767,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9775,13 +9779,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9832,25 +9836,25 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9864,10 +9868,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9878,7 +9882,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9890,13 +9894,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9947,13 +9951,13 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
@@ -9965,7 +9969,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9979,14 +9983,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10005,16 +10009,16 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10064,7 +10068,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10076,13 +10080,13 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10096,14 +10100,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10116,25 +10120,25 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10183,7 +10187,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10195,13 +10199,13 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10215,10 +10219,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10229,7 +10233,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10241,13 +10245,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10298,25 +10302,25 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10330,10 +10334,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10344,7 +10348,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10356,16 +10360,16 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10391,11 +10395,11 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10413,31 +10417,31 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10445,10 +10449,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10459,7 +10463,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10471,16 +10475,16 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10506,11 +10510,11 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10528,31 +10532,31 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10560,10 +10564,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10574,7 +10578,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10586,19 +10590,19 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10623,13 +10627,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10647,31 +10651,31 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10679,10 +10683,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10693,7 +10697,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10705,13 +10709,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10762,13 +10766,13 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -10780,7 +10784,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10794,14 +10798,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10820,16 +10824,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10867,19 +10871,19 @@
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10891,13 +10895,13 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10911,10 +10915,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10934,22 +10938,22 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -10986,17 +10990,17 @@
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11008,19 +11012,19 @@
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11028,13 +11032,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>79</v>
@@ -11044,7 +11048,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11053,22 +11057,22 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11093,11 +11097,11 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11115,7 +11119,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11127,19 +11131,19 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11147,10 +11151,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11161,7 +11165,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11173,13 +11177,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11230,13 +11234,13 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
@@ -11248,7 +11252,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11262,14 +11266,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11288,16 +11292,16 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11335,19 +11339,19 @@
         <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11359,13 +11363,13 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11379,10 +11383,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11390,10 +11394,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11402,29 +11406,29 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>79</v>
@@ -11466,31 +11470,31 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11498,10 +11502,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11512,7 +11516,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11521,19 +11525,19 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11583,31 +11587,31 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11615,10 +11619,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11629,7 +11633,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11638,20 +11642,20 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11700,31 +11704,31 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11732,10 +11736,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11746,7 +11750,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11755,20 +11759,20 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11817,31 +11821,31 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11849,10 +11853,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11863,7 +11867,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11872,22 +11876,22 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -11936,31 +11940,31 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11968,13 +11972,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>79</v>
@@ -11984,7 +11988,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11993,22 +11997,22 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12033,11 +12037,11 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12055,7 +12059,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12067,19 +12071,19 @@
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12087,10 +12091,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12101,7 +12105,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12113,13 +12117,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12170,13 +12174,13 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
@@ -12188,7 +12192,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12202,14 +12206,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12228,16 +12232,16 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12275,19 +12279,19 @@
         <v>79</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12299,13 +12303,13 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12319,10 +12323,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12330,10 +12334,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12342,29 +12346,29 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>79</v>
@@ -12406,31 +12410,31 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12438,10 +12442,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12452,7 +12456,7 @@
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -12461,19 +12465,19 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12523,31 +12527,31 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12555,10 +12559,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12569,7 +12573,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12578,20 +12582,20 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12640,31 +12644,31 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12672,10 +12676,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12686,7 +12690,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -12695,20 +12699,20 @@
         <v>79</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12757,31 +12761,31 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12789,10 +12793,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12803,7 +12807,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -12812,22 +12816,22 @@
         <v>79</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -12876,31 +12880,31 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -12908,10 +12912,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12922,7 +12926,7 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>79</v>
@@ -12931,22 +12935,22 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -12995,31 +12999,31 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13027,10 +13031,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13041,7 +13045,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -13053,16 +13057,16 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13112,31 +13116,31 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13144,10 +13148,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13158,7 +13162,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
@@ -13170,16 +13174,16 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13217,41 +13221,41 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13259,13 +13263,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>79</v>
@@ -13275,7 +13279,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13287,16 +13291,16 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13346,31 +13350,31 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13378,13 +13382,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>79</v>
@@ -13394,7 +13398,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13406,16 +13410,16 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13465,31 +13469,31 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13497,10 +13501,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13523,16 +13527,16 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13582,7 +13586,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13594,13 +13598,13 @@
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="596">
   <si>
     <t>Property</t>
   </si>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>患者への薬剤投与記録</t>
@@ -2416,13 +2412,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2488,10 +2484,10 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>79</v>
@@ -2505,10 +2501,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2519,28 +2515,28 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2590,13 +2586,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2622,10 +2618,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2636,25 +2632,25 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2705,19 +2701,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2737,10 +2733,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2751,28 +2747,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2822,19 +2818,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2854,10 +2850,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2868,7 +2864,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2880,16 +2876,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2915,43 +2911,43 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2971,21 +2967,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2997,16 +2993,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3056,25 +3052,25 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -3088,14 +3084,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3114,16 +3110,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3173,7 +3169,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3191,7 +3187,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -3205,10 +3201,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3231,13 +3227,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3276,17 +3272,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3298,7 +3294,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3318,13 +3314,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -3334,7 +3330,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -3346,13 +3342,13 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3403,7 +3399,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3412,10 +3408,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3435,13 +3431,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3451,7 +3447,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3463,13 +3459,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3520,7 +3516,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3529,10 +3525,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3552,13 +3548,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3568,7 +3564,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3580,13 +3576,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3637,7 +3633,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3646,10 +3642,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3669,13 +3665,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3697,13 +3693,13 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3754,7 +3750,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3763,10 +3759,10 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3786,14 +3782,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3806,25 +3802,25 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3873,7 +3869,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3885,13 +3881,13 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3905,10 +3901,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3916,7 +3912,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3931,16 +3927,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3978,17 +3974,17 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4000,16 +3996,16 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -4020,23 +4016,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -4048,16 +4044,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4107,7 +4103,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4119,16 +4115,16 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4139,10 +4135,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4153,7 +4149,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4165,13 +4161,13 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4222,25 +4218,25 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4254,14 +4250,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4280,16 +4276,16 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4327,19 +4323,19 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4351,13 +4347,13 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4371,10 +4367,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4385,31 +4381,31 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4434,55 +4430,55 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4490,10 +4486,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4504,31 +4500,31 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4553,55 +4549,55 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4609,10 +4605,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4620,107 +4616,107 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T21" t="s" s="2">
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="U21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4728,10 +4724,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4739,31 +4735,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4777,67 +4773,67 @@
         <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="U22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF22" t="s" s="2">
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4845,10 +4841,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4859,25 +4855,25 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4928,31 +4924,31 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4960,10 +4956,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4974,28 +4970,28 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5045,31 +5041,31 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5077,13 +5073,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -5105,16 +5101,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5164,7 +5160,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5176,16 +5172,16 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5196,10 +5192,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5210,7 +5206,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5222,13 +5218,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5279,25 +5275,25 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5311,14 +5307,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5337,16 +5333,16 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5384,19 +5380,19 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5408,13 +5404,13 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5428,10 +5424,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5442,31 +5438,31 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5491,55 +5487,55 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5547,10 +5543,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5561,31 +5557,31 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5610,55 +5606,55 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5666,10 +5662,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5677,107 +5673,107 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="N30" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="U30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF30" t="s" s="2">
+      <c r="AG30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5785,10 +5781,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5796,31 +5792,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5834,67 +5830,67 @@
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5902,10 +5898,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5916,25 +5912,25 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5985,31 +5981,31 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6017,10 +6013,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6031,28 +6027,28 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6102,31 +6098,31 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6134,23 +6130,23 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -6162,16 +6158,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6221,7 +6217,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6233,16 +6229,16 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6253,10 +6249,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6267,7 +6263,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6279,13 +6275,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6336,25 +6332,25 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6368,14 +6364,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6394,16 +6390,16 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N36" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6441,19 +6437,19 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6465,13 +6461,13 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6485,10 +6481,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6499,31 +6495,31 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6548,55 +6544,55 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF37" t="s" s="2">
+      <c r="AG37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6604,10 +6600,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6618,31 +6614,31 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K38" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6667,55 +6663,55 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
+      <c r="AG38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6723,10 +6719,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6734,107 +6730,107 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="N39" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="U39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF39" t="s" s="2">
+      <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6842,10 +6838,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6853,31 +6849,31 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6891,67 +6887,67 @@
         <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="U40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF40" t="s" s="2">
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6959,10 +6955,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6973,25 +6969,25 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K41" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7042,31 +7038,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7074,10 +7070,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7088,28 +7084,28 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K42" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7159,31 +7155,31 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7191,10 +7187,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7214,16 +7210,16 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7274,7 +7270,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7286,13 +7282,13 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7306,10 +7302,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7329,16 +7325,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7389,7 +7385,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7401,13 +7397,13 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7421,10 +7417,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7432,31 +7428,31 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="J45" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7482,55 +7478,55 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Z45" t="s" s="2">
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7538,10 +7534,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7564,16 +7560,16 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7599,14 +7595,14 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7623,7 +7619,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7635,19 +7631,19 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7655,10 +7651,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7669,7 +7665,7 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7681,13 +7677,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7714,49 +7710,49 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Z47" t="s" s="2">
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7770,10 +7766,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7781,31 +7777,31 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K48" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7831,53 +7827,53 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z48" t="s" s="2">
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7885,44 +7881,44 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7948,14 +7944,14 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7972,31 +7968,31 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8004,10 +8000,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8015,31 +8011,31 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K50" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8089,31 +8085,31 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8121,10 +8117,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8135,7 +8131,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8147,16 +8143,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8206,31 +8202,31 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8238,10 +8234,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8264,16 +8260,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8323,7 +8319,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8335,16 +8331,16 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8355,10 +8351,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8366,31 +8362,31 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8440,31 +8436,31 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8472,10 +8468,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8495,16 +8491,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8555,7 +8551,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8567,19 +8563,19 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8587,10 +8583,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8601,7 +8597,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8613,13 +8609,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8670,25 +8666,25 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8702,14 +8698,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8728,16 +8724,16 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8787,7 +8783,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8799,13 +8795,13 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8819,14 +8815,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8839,25 +8835,25 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="N57" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O57" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8906,7 +8902,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8918,13 +8914,13 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8938,10 +8934,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8952,7 +8948,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8964,13 +8960,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8997,49 +8993,49 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z58" t="s" s="2">
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9053,10 +9049,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9064,28 +9060,28 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9136,25 +9132,25 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9168,10 +9164,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9194,13 +9190,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9227,14 +9223,14 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9251,7 +9247,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9263,19 +9259,19 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9283,10 +9279,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9309,16 +9305,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9368,7 +9364,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9380,30 +9376,30 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9414,7 +9410,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9426,19 +9422,19 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9487,31 +9483,31 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9519,10 +9515,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9545,16 +9541,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9604,7 +9600,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9616,19 +9612,19 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9636,10 +9632,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9662,16 +9658,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9721,7 +9717,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9733,13 +9729,13 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9753,10 +9749,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9767,7 +9763,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9779,13 +9775,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9836,25 +9832,25 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9868,10 +9864,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9882,7 +9878,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9894,13 +9890,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9951,25 +9947,25 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9983,14 +9979,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10009,16 +10005,16 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10068,7 +10064,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10080,13 +10076,13 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10100,14 +10096,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10120,25 +10116,25 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="N68" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10187,7 +10183,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10199,13 +10195,13 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10219,10 +10215,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10233,7 +10229,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10245,13 +10241,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10302,25 +10298,25 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10334,10 +10330,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10348,7 +10344,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10360,16 +10356,16 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10395,53 +10391,53 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AA70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10449,10 +10445,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10463,7 +10459,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10475,16 +10471,16 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10510,53 +10506,53 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10564,10 +10560,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10578,7 +10574,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10590,19 +10586,19 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10627,55 +10623,55 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z72" t="s" s="2">
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10683,10 +10679,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10697,7 +10693,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10709,13 +10705,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10766,25 +10762,25 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10798,14 +10794,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10824,16 +10820,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N74" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10871,19 +10867,19 @@
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC74" t="s" s="2">
+      <c r="AF74" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10895,13 +10891,13 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10915,10 +10911,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10938,22 +10934,22 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -10990,17 +10986,17 @@
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11012,19 +11008,19 @@
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11032,13 +11028,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>79</v>
@@ -11048,31 +11044,31 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K76" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11097,11 +11093,11 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11119,7 +11115,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11131,19 +11127,19 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11151,10 +11147,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11165,7 +11161,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11177,13 +11173,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11234,25 +11230,25 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11266,14 +11262,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11292,16 +11288,16 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N78" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11339,19 +11335,19 @@
         <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC78" t="s" s="2">
+      <c r="AF78" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11363,13 +11359,13 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11383,10 +11379,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11394,107 +11390,107 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K79" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="S79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF79" t="s" s="2">
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11502,10 +11498,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11516,28 +11512,28 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K80" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11587,31 +11583,31 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11619,10 +11615,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11633,29 +11629,29 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11704,31 +11700,31 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AG81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11736,10 +11732,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11750,29 +11746,29 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K82" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11821,31 +11817,31 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AG82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11853,10 +11849,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11867,31 +11863,31 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K83" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -11940,31 +11936,31 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AG83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11972,13 +11968,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C84" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>79</v>
@@ -11988,31 +11984,31 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K84" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="N84" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O84" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12037,11 +12033,11 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12059,7 +12055,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12071,19 +12067,19 @@
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12091,10 +12087,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12105,7 +12101,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12117,13 +12113,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12174,25 +12170,25 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12206,14 +12202,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12232,16 +12228,16 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12279,19 +12275,19 @@
         <v>79</v>
       </c>
       <c r="AB86" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC86" t="s" s="2">
+      <c r="AF86" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12303,13 +12299,13 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12323,10 +12319,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12334,41 +12330,41 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>79</v>
@@ -12410,31 +12406,31 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12442,10 +12438,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12456,28 +12452,28 @@
         <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K88" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12527,31 +12523,31 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AG88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL88" t="s" s="2">
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12559,10 +12555,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12573,29 +12569,29 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K89" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12644,31 +12640,31 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AG89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL89" t="s" s="2">
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12676,10 +12672,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12690,29 +12686,29 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K90" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12761,31 +12757,31 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="AG90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12793,10 +12789,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12807,31 +12803,31 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K91" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -12880,31 +12876,31 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AG91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -12912,10 +12908,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12926,31 +12922,31 @@
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J92" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K92" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -12999,31 +12995,31 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AG92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL92" t="s" s="2">
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13031,10 +13027,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13045,7 +13041,7 @@
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
@@ -13057,16 +13053,16 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13116,31 +13112,31 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ93" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL93" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AK93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL93" t="s" s="2">
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13148,10 +13144,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13162,7 +13158,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
@@ -13174,16 +13170,16 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13221,41 +13217,41 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13263,13 +13259,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C95" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>79</v>
@@ -13279,7 +13275,7 @@
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13291,16 +13287,16 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13350,31 +13346,31 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AK95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>585</v>
-      </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13382,13 +13378,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>79</v>
@@ -13398,7 +13394,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13410,16 +13406,16 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N96" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13469,31 +13465,31 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ96" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="AK96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL96" t="s" s="2">
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13501,10 +13497,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13527,16 +13523,16 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13586,7 +13582,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13598,13 +13594,13 @@
         <v>79</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="604">
   <si>
     <t>Property</t>
   </si>
@@ -268,7 +268,7 @@
     <t>患者への薬剤投与記録</t>
   </si>
   <si>
-    <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
   </si>
   <si>
     <t>Event</t>
@@ -290,13 +290,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID</t>
+  </si>
+  <si>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -309,16 +309,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>「リソースに関するメタデータ」</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -329,13 +329,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールセット</t>
+  </si>
+  <si>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -348,19 +348,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
+  </si>
+  <si>
+    <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -380,13 +380,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+  </si>
+  <si>
+    <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -406,13 +406,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -444,8 +444,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:requestDepartment</t>
@@ -468,6 +468,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>MedicationAdministration.extension:requestAuthoredOn</t>
   </si>
   <si>
@@ -525,14 +529,13 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -600,10 +603,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -618,10 +621,13 @@
     <t>MedicationAdministration.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -636,28 +642,32 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>Role.code or implied by context</t>
@@ -673,22 +683,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -712,10 +722,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -770,10 +780,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -795,13 +805,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -825,7 +835,7 @@
     <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。</t>
   </si>
   <si>
     <t>MedicationAdministration.identifier:requestIdentifier.id</t>
@@ -843,10 +853,10 @@
     <t>MedicationAdministration.identifier:requestIdentifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
@@ -855,13 +865,13 @@
     <t>MedicationAdministration.identifier:requestIdentifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationAdministration.identifier:requestIdentifier.period</t>
@@ -971,7 +981,7 @@
 【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>この要素は修飾子としてラベル付けされています。なぜなら、ステータスには、リソースが現在無効であることを示すコードが含まれているためです。</t>
   </si>
   <si>
     <t>患者への投与状況</t>
@@ -1008,7 +1018,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+    <t>"医薬品投与が取り消された理由を示すコードのセット"</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
@@ -1035,7 +1045,7 @@
  (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
   </si>
   <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
+    <t>薬剤の投与が予想される場所を記述するコード化された概念。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -1065,7 +1075,7 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>Codes identifying substance or product that can be administered.</t>
+    <t>投与可能な物質または製品を識別するコード。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1235,7 +1245,19 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1245,11 +1267,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1258,13 +1280,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>Type of performance</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in administering the medication.</t>
+    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
+  </si>
+  <si>
+    <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
+  </si>
+  <si>
+    <t>「薬物管理を行った個人の役割を説明するコード」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1283,10 +1305,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration.</t>
+    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+  </si>
+  <si>
+    <t>「薬剤投与を行った人物または物品を示す」</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1305,7 +1327,7 @@
 投薬が実施された理由を示すコード</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
+    <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1436,8 +1458,8 @@
 投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+mad-1:「用量、投与回数、投与速度[x] のうち少なくとも1つを有するものとする」と訳すことができます。 {dose.exists() or rate.exists()}</t>
   </si>
   <si>
     <t>component-&gt;SubstanceAdministrationEvent</t>
@@ -1522,7 +1544,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1547,16 +1569,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1607,16 +1629,16 @@
     <t>MedicationAdministration.dosage.method.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.30</t>
@@ -1637,13 +1659,13 @@
     <t>MedicationAdministration.dosage.method.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1661,13 +1683,13 @@
     <t>MedicationAdministration.dosage.method.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1685,13 +1707,13 @@
     <t>MedicationAdministration.dosage.method.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1713,16 +1735,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1814,8 +1836,8 @@
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1862,11 +1884,11 @@
     <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+    <t>比率データタイプは、関係を数量と共通単位を使用して適切に表現できない場合にのみ、2つの数値の関係を表現するために使用する必要があります。分母値が「1」に固定されていることが知られている場合、比率ではなく数量を使用する必要があります。 / The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
   </si>
   <si>
     <t>RTO</t>
@@ -1885,7 +1907,7 @@
     <t>投与速度(量/時間)を指定する</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -1902,7 +1924,7 @@
 投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
   </si>
   <si>
-    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>この要請のすべてのバージョンの起源が含まれているわけではない可能性があります。ただし、「関連性」または重要と見なされるものに限定されます。それに含まれる証跡には、このリソースの現在のバージョンに関連するものは含まれません。 （そのプロバイナンスが「関連性のある」変更である場合、後の更新の一部として追加する必要があります。その時までは、このバージョンを指すプロバイナンスとして直接クエリできます。All Provenancesは、この要求の過去のバージョンを主題として持つ必要があります。</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -2245,7 +2267,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3415,7 +3437,7 @@
         <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3435,13 +3457,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3463,13 +3485,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3532,7 +3554,7 @@
         <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3552,13 +3574,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3580,13 +3602,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3649,7 +3671,7 @@
         <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3669,13 +3691,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3697,13 +3719,13 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3766,7 +3788,7 @@
         <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3786,14 +3808,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3815,16 +3837,16 @@
         <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3873,7 +3895,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3905,10 +3927,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3916,7 +3938,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3931,16 +3953,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3978,7 +4000,7 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
@@ -3988,7 +4010,7 @@
         <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4003,13 +4025,13 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -4020,13 +4042,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
@@ -4048,16 +4070,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4107,7 +4129,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4122,13 +4144,13 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4139,10 +4161,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4165,13 +4187,13 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4222,7 +4244,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4240,7 +4262,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4254,14 +4276,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4283,13 +4305,13 @@
         <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4330,7 +4352,7 @@
         <v>136</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
@@ -4339,7 +4361,7 @@
         <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4351,13 +4373,13 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4371,10 +4393,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4400,16 +4422,16 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4434,13 +4456,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4458,7 +4480,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4470,13 +4492,13 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4490,10 +4512,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4516,19 +4538,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4553,13 +4575,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4577,7 +4599,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4589,19 +4611,19 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4609,10 +4631,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4638,29 +4660,29 @@
         <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>79</v>
@@ -4696,7 +4718,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4708,19 +4730,19 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4728,10 +4750,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4754,16 +4776,16 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4777,7 +4799,7 @@
         <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>79</v>
@@ -4813,7 +4835,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4825,19 +4847,19 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4845,10 +4867,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4871,13 +4893,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4928,7 +4950,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4940,19 +4962,19 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4960,10 +4982,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4986,16 +5008,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5045,7 +5067,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5057,19 +5079,19 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5077,13 +5099,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -5105,16 +5127,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5164,7 +5186,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5179,13 +5201,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5196,10 +5218,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5222,13 +5244,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5279,7 +5301,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5297,7 +5319,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5311,14 +5333,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5340,13 +5362,13 @@
         <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5387,7 +5409,7 @@
         <v>136</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
@@ -5396,7 +5418,7 @@
         <v>137</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5408,13 +5430,13 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5428,10 +5450,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5457,16 +5479,16 @@
         <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5491,13 +5513,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5515,7 +5537,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5527,13 +5549,13 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5547,10 +5569,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5573,19 +5595,19 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5610,13 +5632,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5634,7 +5656,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5646,19 +5668,19 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5666,10 +5688,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5695,29 +5717,29 @@
         <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>79</v>
@@ -5753,7 +5775,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5765,19 +5787,19 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5785,10 +5807,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5811,16 +5833,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5834,7 +5856,7 @@
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>79</v>
@@ -5870,7 +5892,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5882,19 +5904,19 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5902,10 +5924,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5928,13 +5950,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5985,7 +6007,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5997,19 +6019,19 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6017,10 +6039,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6043,16 +6065,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6102,7 +6124,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6114,19 +6136,19 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6134,13 +6156,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>79</v>
@@ -6162,16 +6184,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6221,7 +6243,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6236,13 +6258,13 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6253,10 +6275,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6279,13 +6301,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6336,7 +6358,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6354,7 +6376,7 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6368,14 +6390,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6397,13 +6419,13 @@
         <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6444,7 +6466,7 @@
         <v>136</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>79</v>
@@ -6453,7 +6475,7 @@
         <v>137</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6465,13 +6487,13 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6485,10 +6507,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6514,16 +6536,16 @@
         <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6548,13 +6570,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6572,7 +6594,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6584,13 +6606,13 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6604,10 +6626,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6630,19 +6652,19 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6667,13 +6689,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6691,7 +6713,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6703,19 +6725,19 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6723,10 +6745,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6752,29 +6774,29 @@
         <v>102</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>79</v>
@@ -6810,7 +6832,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6822,19 +6844,19 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6842,10 +6864,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6868,16 +6890,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6891,7 +6913,7 @@
         <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>79</v>
@@ -6927,7 +6949,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6939,19 +6961,19 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6959,10 +6981,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6985,13 +7007,13 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7042,7 +7064,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7054,19 +7076,19 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7074,10 +7096,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7100,16 +7122,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7159,7 +7181,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7171,19 +7193,19 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7191,10 +7213,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7220,10 +7242,10 @@
         <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7274,7 +7296,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7289,10 +7311,10 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -7306,10 +7328,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7332,13 +7354,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7389,7 +7411,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7404,10 +7426,10 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -7421,10 +7443,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7450,13 +7472,13 @@
         <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7482,13 +7504,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7506,7 +7528,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7521,16 +7543,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7538,10 +7560,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7564,16 +7586,16 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7599,13 +7621,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7623,7 +7645,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7638,16 +7660,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7655,10 +7677,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7681,13 +7703,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7717,28 +7739,28 @@
         <v>112</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7756,7 +7778,7 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7770,10 +7792,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7796,16 +7818,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7831,29 +7853,29 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7868,16 +7890,16 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7885,13 +7907,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>79</v>
@@ -7913,16 +7935,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7951,10 +7973,10 @@
         <v>112</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7972,7 +7994,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7987,16 +8009,16 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8004,10 +8026,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8030,16 +8052,16 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8089,7 +8111,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -8104,16 +8126,16 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8121,10 +8143,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8147,16 +8169,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8206,7 +8228,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8221,16 +8243,16 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8238,10 +8260,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8264,16 +8286,16 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8323,7 +8345,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8341,10 +8363,10 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8355,10 +8377,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8381,16 +8403,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8440,7 +8462,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>88</v>
@@ -8455,16 +8477,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8472,10 +8494,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8498,13 +8520,13 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8555,7 +8577,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8570,16 +8592,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8587,10 +8609,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8613,13 +8635,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8670,7 +8692,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8688,7 +8710,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8702,14 +8724,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8731,13 +8753,13 @@
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>192</v>
+        <v>392</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>193</v>
+        <v>393</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8787,7 +8809,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8805,7 +8827,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8819,14 +8841,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8848,16 +8870,16 @@
         <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8906,7 +8928,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8938,10 +8960,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8964,13 +8986,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8997,13 +9019,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9021,7 +9043,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9036,10 +9058,10 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9053,10 +9075,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9079,13 +9101,13 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9136,7 +9158,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>88</v>
@@ -9151,10 +9173,10 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9168,10 +9190,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9194,13 +9216,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9227,13 +9249,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9251,7 +9273,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9266,16 +9288,16 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9283,10 +9305,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9309,16 +9331,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9368,7 +9390,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9383,27 +9405,27 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9426,19 +9448,19 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9487,7 +9509,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9502,16 +9524,16 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9519,10 +9541,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9545,16 +9567,16 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9604,7 +9626,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9622,13 +9644,13 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9636,10 +9658,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9662,16 +9684,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9721,7 +9743,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9736,10 +9758,10 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9753,10 +9775,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9779,13 +9801,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9836,7 +9858,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9848,13 +9870,13 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9868,10 +9890,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9894,13 +9916,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>186</v>
+        <v>389</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>187</v>
+        <v>390</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9951,7 +9973,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9969,7 +9991,7 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9983,14 +10005,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10012,13 +10034,13 @@
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>192</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>193</v>
+        <v>393</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10068,7 +10090,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10086,7 +10108,7 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10100,14 +10122,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10129,16 +10151,16 @@
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10187,7 +10209,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10219,10 +10241,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10245,13 +10267,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10302,7 +10324,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10320,7 +10342,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10334,10 +10356,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10360,16 +10382,16 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10399,7 +10421,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10417,7 +10439,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10435,13 +10457,13 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10449,10 +10471,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10475,16 +10497,16 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10514,7 +10536,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10532,7 +10554,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10550,13 +10572,13 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10564,10 +10586,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10590,19 +10612,19 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10627,13 +10649,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10651,7 +10673,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10669,13 +10691,13 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10683,10 +10705,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10709,13 +10731,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10766,7 +10788,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10784,7 +10806,7 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
@@ -10798,14 +10820,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10827,13 +10849,13 @@
         <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10874,7 +10896,7 @@
         <v>136</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>79</v>
@@ -10883,7 +10905,7 @@
         <v>137</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10895,13 +10917,13 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
@@ -10915,10 +10937,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10941,19 +10963,19 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -10990,7 +11012,7 @@
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
@@ -11000,7 +11022,7 @@
         <v>137</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11012,19 +11034,19 @@
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11032,13 +11054,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>79</v>
@@ -11060,19 +11082,19 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11101,7 +11123,7 @@
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11119,7 +11141,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11131,19 +11153,19 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11151,10 +11173,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11177,13 +11199,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11234,7 +11256,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11252,7 +11274,7 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
@@ -11266,14 +11288,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11295,13 +11317,13 @@
         <v>133</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11342,7 +11364,7 @@
         <v>136</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>79</v>
@@ -11351,7 +11373,7 @@
         <v>137</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11363,13 +11385,13 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11383,10 +11405,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11412,23 +11434,23 @@
         <v>102</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>79</v>
@@ -11470,7 +11492,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11482,19 +11504,19 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11502,10 +11524,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11528,16 +11550,16 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11587,7 +11609,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11599,19 +11621,19 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11619,10 +11641,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11648,14 +11670,14 @@
         <v>108</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11704,7 +11726,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11716,19 +11738,19 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11736,10 +11758,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11762,17 +11784,17 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11821,7 +11843,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11833,19 +11855,19 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11853,10 +11875,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11879,19 +11901,19 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -11940,7 +11962,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11952,19 +11974,19 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11972,13 +11994,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>79</v>
@@ -12000,19 +12022,19 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12041,7 +12063,7 @@
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12059,7 +12081,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12071,19 +12093,19 @@
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12091,10 +12113,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12117,13 +12139,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12174,7 +12196,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12192,7 +12214,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12206,14 +12228,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12235,13 +12257,13 @@
         <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12282,7 +12304,7 @@
         <v>136</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>79</v>
@@ -12291,7 +12313,7 @@
         <v>137</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12303,13 +12325,13 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12323,10 +12345,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12352,23 +12374,23 @@
         <v>102</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>79</v>
@@ -12410,7 +12432,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12422,19 +12444,19 @@
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12442,10 +12464,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12468,16 +12490,16 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12527,7 +12549,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12539,19 +12561,19 @@
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12559,10 +12581,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12588,14 +12610,14 @@
         <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12644,7 +12666,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12656,19 +12678,19 @@
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12676,10 +12698,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12702,17 +12724,17 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12761,7 +12783,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12773,19 +12795,19 @@
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12793,10 +12815,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12819,19 +12841,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -12880,7 +12902,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12892,19 +12914,19 @@
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -12912,10 +12934,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12938,19 +12960,19 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -12999,7 +13021,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13011,19 +13033,19 @@
         <v>79</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13031,10 +13053,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13057,16 +13079,16 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13116,7 +13138,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13128,19 +13150,19 @@
         <v>145</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13148,10 +13170,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13174,16 +13196,16 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13221,17 +13243,17 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13249,13 +13271,13 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13263,13 +13285,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B95" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="B95" t="s" s="2">
-        <v>572</v>
-      </c>
       <c r="C95" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>79</v>
@@ -13291,16 +13313,16 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13350,7 +13372,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13362,13 +13384,13 @@
         <v>145</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
@@ -13382,13 +13404,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>79</v>
@@ -13410,16 +13432,16 @@
         <v>79</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13469,7 +13491,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13481,19 +13503,19 @@
         <v>145</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13501,10 +13523,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13527,16 +13549,16 @@
         <v>79</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13586,7 +13608,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13604,7 +13626,7 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="600">
   <si>
     <t>Property</t>
   </si>
@@ -1075,17 +1075,10 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>投与可能な物質または製品を識別するコード。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>処方する製剤を表すコード。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1098,18 +1091,6 @@
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]:medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>medicationCodeableConcept</t>
-  </si>
-  <si>
-    <t>処方する製剤を表すコード。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1863,6 +1844,13 @@
   <si>
     <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.
 レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>.rateQuantity</t>
@@ -2234,7 +2222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO97"/>
+  <dimension ref="A1:AO96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2245,7 +2233,7 @@
   <cols>
     <col min="1" max="1" width="68.30859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="58.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.47265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -7853,7 +7841,7 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="Y48" t="s" s="2">
         <v>337</v>
@@ -7865,14 +7853,16 @@
         <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>333</v>
@@ -7890,16 +7880,16 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7907,14 +7897,12 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7935,16 +7923,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7970,13 +7958,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7994,7 +7982,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -8009,16 +7997,16 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8026,10 +8014,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8037,7 +8025,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -8049,19 +8037,19 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8111,10 +8099,10 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
@@ -8126,16 +8114,16 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8143,10 +8131,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8157,7 +8145,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8169,16 +8157,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8228,13 +8216,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -8243,16 +8231,16 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8260,10 +8248,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8271,10 +8259,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8283,19 +8271,19 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8345,13 +8333,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -8360,16 +8348,16 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8377,10 +8365,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8388,10 +8376,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8403,17 +8391,15 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8462,13 +8448,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8477,16 +8463,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8494,10 +8480,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8508,7 +8494,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8517,16 +8503,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8577,31 +8563,31 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>380</v>
+        <v>189</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>385</v>
+        <v>190</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8609,21 +8595,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8635,15 +8621,17 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8692,19 +8680,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8724,14 +8712,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8744,24 +8732,26 @@
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8809,7 +8799,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8827,7 +8817,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8841,46 +8831,42 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8904,13 +8890,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8928,25 +8914,25 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>399</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8960,10 +8946,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8971,7 +8957,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8983,16 +8969,16 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>212</v>
+        <v>401</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9019,13 +9005,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9043,10 +9029,10 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
@@ -9086,10 +9072,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9098,16 +9084,16 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9134,13 +9120,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9161,10 +9147,10 @@
         <v>406</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -9173,16 +9159,16 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9190,10 +9176,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9216,15 +9202,17 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>212</v>
+        <v>415</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9249,13 +9237,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9273,7 +9261,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9288,27 +9276,27 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9319,7 +9307,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9331,18 +9319,20 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9390,13 +9380,13 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -9405,27 +9395,27 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9436,7 +9426,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9448,20 +9438,18 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9509,13 +9497,13 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
@@ -9524,7 +9512,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>436</v>
@@ -9576,7 +9564,7 @@
         <v>441</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>353</v>
+        <v>442</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9641,16 +9629,16 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9658,10 +9646,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9672,7 +9660,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9684,7 +9672,7 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>446</v>
@@ -9692,9 +9680,7 @@
       <c r="M64" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9743,25 +9729,25 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>448</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9775,10 +9761,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9801,13 +9787,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>186</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9858,7 +9844,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>451</v>
+        <v>189</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9870,13 +9856,13 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>455</v>
+        <v>190</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -9890,21 +9876,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9916,15 +9902,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9973,19 +9961,19 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10005,14 +9993,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>163</v>
+        <v>389</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10025,24 +10013,26 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10090,7 +10080,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10108,7 +10098,7 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -10122,46 +10112,42 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10209,25 +10195,25 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>131</v>
+        <v>456</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10241,10 +10227,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10267,15 +10253,17 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10300,13 +10288,11 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10324,7 +10310,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10348,7 +10334,7 @@
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10356,10 +10342,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10385,13 +10371,13 @@
         <v>212</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>466</v>
+        <v>320</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10439,7 +10425,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10503,12 +10489,14 @@
         <v>471</v>
       </c>
       <c r="M71" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10532,11 +10520,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y71" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="Z71" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10572,13 +10562,13 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10586,10 +10576,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10612,20 +10602,16 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>477</v>
+        <v>187</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10649,13 +10635,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10673,7 +10659,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>476</v>
+        <v>189</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10685,19 +10671,19 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>482</v>
+        <v>190</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10705,21 +10691,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10731,15 +10717,17 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10776,31 +10764,31 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -10820,14 +10808,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10843,21 +10831,23 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>133</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>193</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>194</v>
+        <v>483</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10893,11 +10883,9 @@
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10905,7 +10893,7 @@
         <v>137</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>197</v>
+        <v>486</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10917,19 +10905,19 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>190</v>
+        <v>487</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -10937,12 +10925,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10951,7 +10941,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10963,19 +10953,19 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11000,29 +10990,29 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11040,13 +11030,13 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11054,14 +11044,12 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11079,23 +11067,19 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>487</v>
+        <v>186</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>497</v>
+        <v>187</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11119,11 +11103,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y76" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z76" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11141,31 +11127,31 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>492</v>
+        <v>189</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>493</v>
+        <v>190</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11173,21 +11159,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11199,15 +11185,17 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11244,31 +11232,31 @@
         <v>79</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11288,21 +11276,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11311,27 +11299,29 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>193</v>
+        <v>502</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>194</v>
+        <v>503</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>79</v>
@@ -11361,43 +11351,43 @@
         <v>79</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>197</v>
+        <v>507</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>190</v>
+        <v>508</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11405,10 +11395,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11416,7 +11406,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>88</v>
@@ -11431,26 +11421,24 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>512</v>
+        <v>79</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>79</v>
@@ -11492,7 +11480,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11510,13 +11498,13 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11524,10 +11512,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11550,18 +11538,18 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11609,7 +11597,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11627,13 +11615,13 @@
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11641,10 +11629,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11667,17 +11655,17 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11726,7 +11714,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11744,13 +11732,13 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11758,10 +11746,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11784,17 +11772,19 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>186</v>
+        <v>536</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O82" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11843,7 +11833,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11861,13 +11851,13 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11875,12 +11865,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11901,19 +11893,19 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>542</v>
+        <v>481</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -11938,13 +11930,11 @@
         <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -11962,13 +11952,13 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>547</v>
+        <v>486</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
@@ -11980,13 +11970,13 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>548</v>
+        <v>487</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>549</v>
+        <v>488</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11994,14 +11984,12 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12019,23 +12007,19 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>487</v>
+        <v>186</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>187</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12059,11 +12043,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12081,31 +12067,31 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>492</v>
+        <v>189</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>493</v>
+        <v>190</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12113,21 +12099,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12139,15 +12125,17 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12184,31 +12172,31 @@
         <v>79</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -12228,21 +12216,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12251,27 +12239,29 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>193</v>
+        <v>502</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>194</v>
+        <v>503</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>79</v>
@@ -12301,43 +12291,43 @@
         <v>79</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>197</v>
+        <v>507</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>190</v>
+        <v>508</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12345,10 +12335,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12356,7 +12346,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -12371,26 +12361,24 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>79</v>
@@ -12432,7 +12420,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12450,13 +12438,13 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12464,10 +12452,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12490,18 +12478,18 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
       </c>
@@ -12549,7 +12537,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12567,13 +12555,13 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12581,10 +12569,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12607,17 +12595,17 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12666,7 +12654,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12684,13 +12672,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12698,10 +12686,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12724,17 +12712,19 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>186</v>
+        <v>536</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>539</v>
+      </c>
       <c r="O90" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12783,7 +12773,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12801,13 +12791,13 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12815,10 +12805,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12841,19 +12831,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>542</v>
+        <v>186</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -12902,7 +12892,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12920,13 +12910,13 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -12934,10 +12924,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12957,23 +12947,21 @@
         <v>79</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>186</v>
+        <v>566</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13021,7 +13009,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13030,22 +13018,22 @@
         <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>208</v>
+        <v>570</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13053,10 +13041,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13079,16 +13067,16 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13126,19 +13114,17 @@
         <v>79</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="AC93" s="2"/>
       <c r="AD93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13147,22 +13133,22 @@
         <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>576</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13170,12 +13156,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="D94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13196,16 +13184,16 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13243,17 +13231,19 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AC94" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13262,22 +13252,22 @@
         <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>587</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>585</v>
+        <v>131</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13285,13 +13275,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>79</v>
@@ -13313,16 +13303,16 @@
         <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13372,7 +13362,7 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13384,19 +13374,19 @@
         <v>145</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>131</v>
+        <v>572</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13404,14 +13394,12 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C96" t="s" s="2">
         <v>594</v>
       </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>79</v>
       </c>
@@ -13420,7 +13408,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>79</v>
@@ -13438,10 +13426,10 @@
         <v>596</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13491,150 +13479,33 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>576</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO97" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="552">
   <si>
     <t>Property</t>
   </si>
@@ -608,9 +608,6 @@
     <t>urn:oid:1.2.392.100495.20.3.81</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -633,9 +630,6 @@
   </si>
   <si>
     <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -1374,14 +1368,16 @@
     <t>MedicationAdministration.dosage.route</t>
   </si>
   <si>
-    <t>Path of substance into body　体への投与経路</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto the patient.  For example, topical, intravenous, etc.
-患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
+    <t>物質の道は体中に伸びる。</t>
+  </si>
+  <si>
+    <t>治療剤の患者への内部または表面への投与のルートまたは生理学的経路を指定するコード。例えば、表面的な投与、静注など。</t>
+  </si>
+  <si>
+    <t>「治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念」</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1727,9 +1723,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>.rateQuantity</t>
   </si>
   <si>
@@ -1757,22 +1750,6 @@
   </si>
   <si>
     <t>RTO</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.rate[x]:rateQuantity</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>投与速度(量/時間)を指定する</t>
-  </si>
-  <si>
-    <t>使用のコンテキストは、これがどのような量であるか、したがってどのようなユニットを使用できるかを頻繁に定義する場合があります。使用のコンテキストは、コンパレータの値を制限する場合もあります。 / The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
   </si>
   <si>
     <t>MedicationAdministration.eventHistory</t>
@@ -2099,7 +2076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO95"/>
+  <dimension ref="A1:AO94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2125,7 +2102,7 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -2136,7 +2113,7 @@
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -4421,43 +4398,43 @@
         <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4475,13 +4452,13 @@
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4489,10 +4466,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4518,13 +4495,13 @@
         <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4538,7 +4515,7 @@
         <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>38</v>
@@ -4574,7 +4551,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4592,13 +4569,13 @@
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4606,10 +4583,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4632,13 +4609,13 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4689,7 +4666,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4707,13 +4684,13 @@
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4721,10 +4698,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4747,16 +4724,16 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4806,7 +4783,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4824,13 +4801,13 @@
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4838,13 +4815,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>38</v>
@@ -4869,13 +4846,13 @@
         <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4957,7 +4934,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>144</v>
@@ -5072,7 +5049,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>151</v>
@@ -5189,7 +5166,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>158</v>
@@ -5308,7 +5285,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>170</v>
@@ -5427,7 +5404,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>182</v>
@@ -5456,10 +5433,10 @@
         <v>61</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>185</v>
@@ -5472,49 +5449,49 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5532,13 +5509,13 @@
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5546,10 +5523,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5575,13 +5552,13 @@
         <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5595,7 +5572,7 @@
         <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>38</v>
@@ -5631,7 +5608,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5649,13 +5626,13 @@
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5663,10 +5640,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5689,13 +5666,13 @@
         <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5746,7 +5723,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5764,13 +5741,13 @@
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5778,10 +5755,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5804,16 +5781,16 @@
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5863,7 +5840,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5881,13 +5858,13 @@
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5895,13 +5872,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>38</v>
@@ -5926,13 +5903,13 @@
         <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6014,7 +5991,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>144</v>
@@ -6129,7 +6106,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>151</v>
@@ -6246,7 +6223,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>158</v>
@@ -6365,7 +6342,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>170</v>
@@ -6484,7 +6461,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>182</v>
@@ -6513,10 +6490,10 @@
         <v>61</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>185</v>
@@ -6529,49 +6506,49 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6589,13 +6566,13 @@
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6603,10 +6580,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6632,13 +6609,13 @@
         <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6652,7 +6629,7 @@
         <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>38</v>
@@ -6688,7 +6665,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6706,13 +6683,13 @@
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6720,10 +6697,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6746,13 +6723,13 @@
         <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6803,7 +6780,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6821,13 +6798,13 @@
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6835,10 +6812,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6861,16 +6838,16 @@
         <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6920,7 +6897,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6938,13 +6915,13 @@
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -6952,10 +6929,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6981,10 +6958,10 @@
         <v>61</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7035,7 +7012,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7050,10 +7027,10 @@
         <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -7067,10 +7044,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7093,13 +7070,13 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7150,7 +7127,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7165,10 +7142,10 @@
         <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -7182,10 +7159,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7211,13 +7188,13 @@
         <v>67</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7246,10 +7223,10 @@
         <v>163</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7267,7 +7244,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>47</v>
@@ -7282,16 +7259,16 @@
         <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7299,10 +7276,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7328,13 +7305,13 @@
         <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7360,14 +7337,14 @@
         <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>38</v>
       </c>
@@ -7384,7 +7361,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7399,16 +7376,16 @@
         <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7416,10 +7393,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7445,10 +7422,10 @@
         <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7478,10 +7455,10 @@
         <v>71</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7499,7 +7476,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7517,7 +7494,7 @@
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7531,10 +7508,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7560,13 +7537,13 @@
         <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7595,10 +7572,10 @@
         <v>71</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7616,7 +7593,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>47</v>
@@ -7631,16 +7608,16 @@
         <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -7648,10 +7625,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7674,16 +7651,16 @@
         <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7733,7 +7710,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>47</v>
@@ -7748,16 +7725,16 @@
         <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -7765,10 +7742,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7791,16 +7768,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7850,7 +7827,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7865,16 +7842,16 @@
         <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7882,10 +7859,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7908,16 +7885,16 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7967,7 +7944,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7985,10 +7962,10 @@
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7999,10 +7976,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8025,16 +8002,16 @@
         <v>48</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8084,7 +8061,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>47</v>
@@ -8099,16 +8076,16 @@
         <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8116,10 +8093,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8142,13 +8119,13 @@
         <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8199,7 +8176,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8214,16 +8191,16 @@
         <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8231,10 +8208,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8260,10 +8237,10 @@
         <v>145</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8346,10 +8323,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8375,10 +8352,10 @@
         <v>92</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>125</v>
@@ -8463,14 +8440,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8492,10 +8469,10 @@
         <v>92</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>125</v>
@@ -8550,7 +8527,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8582,10 +8559,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8611,10 +8588,10 @@
         <v>171</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8641,13 +8618,13 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>38</v>
@@ -8665,7 +8642,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8680,10 +8657,10 @@
         <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8697,10 +8674,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8723,13 +8700,13 @@
         <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8780,7 +8757,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>47</v>
@@ -8795,10 +8772,10 @@
         <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8812,10 +8789,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8841,10 +8818,10 @@
         <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8871,13 +8848,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8895,7 +8872,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8910,16 +8887,16 @@
         <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -8927,10 +8904,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8953,16 +8930,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9012,7 +8989,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9027,27 +9004,27 @@
         <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9070,19 +9047,19 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9131,7 +9108,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9146,16 +9123,16 @@
         <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -9163,10 +9140,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9189,16 +9166,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9248,7 +9225,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9266,13 +9243,13 @@
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -9280,10 +9257,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9306,16 +9283,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9365,7 +9342,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9380,10 +9357,10 @@
         <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -9397,10 +9374,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9423,13 +9400,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9480,7 +9457,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9492,13 +9469,13 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9512,10 +9489,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9541,10 +9518,10 @@
         <v>145</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9627,10 +9604,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9656,10 +9633,10 @@
         <v>92</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>125</v>
@@ -9744,14 +9721,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9773,10 +9750,10 @@
         <v>92</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>125</v>
@@ -9831,7 +9808,7 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9863,10 +9840,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9892,10 +9869,10 @@
         <v>145</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9946,7 +9923,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9964,7 +9941,7 @@
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -9978,10 +9955,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10007,13 +9984,13 @@
         <v>171</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10043,7 +10020,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -10061,7 +10038,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10079,13 +10056,13 @@
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>38</v>
@@ -10093,10 +10070,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10122,14 +10099,12 @@
         <v>171</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -10154,11 +10129,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y69" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="Z69" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -10176,7 +10153,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10194,13 +10171,13 @@
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
@@ -10208,10 +10185,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10237,16 +10214,16 @@
         <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10271,14 +10248,14 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
       </c>
@@ -10295,7 +10272,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10313,13 +10290,13 @@
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10327,10 +10304,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10442,10 +10419,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10559,10 +10536,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10585,19 +10562,19 @@
         <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10644,7 +10621,7 @@
         <v>96</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10662,13 +10639,13 @@
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>38</v>
@@ -10676,13 +10653,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>38</v>
@@ -10704,19 +10681,19 @@
         <v>48</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10745,7 +10722,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10763,7 +10740,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10781,13 +10758,13 @@
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>38</v>
@@ -10795,10 +10772,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10910,10 +10887,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11027,10 +11004,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11056,65 +11033,65 @@
         <v>61</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF77" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11132,13 +11109,13 @@
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11146,10 +11123,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11175,13 +11152,13 @@
         <v>145</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11231,7 +11208,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11249,13 +11226,13 @@
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11263,10 +11240,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11292,14 +11269,14 @@
         <v>67</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>38</v>
@@ -11348,7 +11325,7 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11366,13 +11343,13 @@
         <v>38</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>38</v>
@@ -11380,10 +11357,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11409,14 +11386,14 @@
         <v>145</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>38</v>
@@ -11465,7 +11442,7 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11483,13 +11460,13 @@
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>38</v>
@@ -11497,10 +11474,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11523,19 +11500,19 @@
         <v>48</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>38</v>
@@ -11584,7 +11561,7 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11602,13 +11579,13 @@
         <v>38</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>38</v>
@@ -11616,13 +11593,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C82" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>38</v>
@@ -11644,19 +11621,19 @@
         <v>48</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="N82" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O82" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11685,7 +11662,7 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>38</v>
@@ -11703,7 +11680,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11721,13 +11698,13 @@
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>38</v>
@@ -11735,10 +11712,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11850,10 +11827,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11967,10 +11944,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11996,23 +11973,23 @@
         <v>61</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>38</v>
@@ -12054,7 +12031,7 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12072,13 +12049,13 @@
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>38</v>
@@ -12086,10 +12063,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12115,13 +12092,13 @@
         <v>145</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12171,7 +12148,7 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12189,13 +12166,13 @@
         <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
@@ -12203,10 +12180,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12232,14 +12209,14 @@
         <v>67</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>38</v>
@@ -12288,7 +12265,7 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12306,13 +12283,13 @@
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
@@ -12320,10 +12297,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12349,14 +12326,14 @@
         <v>145</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -12405,7 +12382,7 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12423,13 +12400,13 @@
         <v>38</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -12437,10 +12414,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12463,19 +12440,19 @@
         <v>48</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -12524,7 +12501,7 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12542,13 +12519,13 @@
         <v>38</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -12556,10 +12533,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12585,16 +12562,16 @@
         <v>145</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -12643,7 +12620,7 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -12661,13 +12638,13 @@
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -12675,10 +12652,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12701,16 +12678,16 @@
         <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12760,7 +12737,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12772,19 +12749,19 @@
         <v>104</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AK91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -12792,10 +12769,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12818,16 +12795,16 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12865,17 +12842,17 @@
         <v>38</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AC92" s="2"/>
       <c r="AD92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>538</v>
+        <v>96</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -12893,13 +12870,13 @@
         <v>38</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>38</v>
@@ -12907,13 +12884,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>38</v>
@@ -12935,16 +12912,16 @@
         <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N93" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12994,7 +12971,7 @@
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13006,13 +12983,13 @@
         <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>38</v>
@@ -13026,14 +13003,12 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>549</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>38</v>
       </c>
@@ -13042,7 +13017,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>38</v>
@@ -13054,16 +13029,16 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13113,150 +13088,33 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>529</v>
+        <v>59</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>531</v>
+        <v>38</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO95" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="553">
   <si>
     <t>Property</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
+  </si>
+  <si>
+    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2223,13 +2227,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -2243,10 +2247,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2257,7 +2261,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2266,19 +2270,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2328,13 +2332,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2360,10 +2364,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2374,7 +2378,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2383,16 +2387,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2443,19 +2447,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2475,10 +2479,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2489,28 +2493,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2560,19 +2564,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2592,10 +2596,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2606,7 +2610,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2618,16 +2622,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2653,13 +2657,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2677,19 +2681,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2709,21 +2713,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2735,16 +2739,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2794,25 +2798,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2826,14 +2830,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2852,16 +2856,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2911,7 +2915,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2929,7 +2933,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2943,10 +2947,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2969,13 +2973,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3014,17 +3018,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3036,7 +3040,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -3056,13 +3060,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -3072,7 +3076,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -3084,13 +3088,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3141,7 +3145,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3150,10 +3154,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3173,13 +3177,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -3189,7 +3193,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -3201,13 +3205,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3258,7 +3262,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3267,10 +3271,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -3290,13 +3294,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -3306,7 +3310,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3318,13 +3322,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3375,7 +3379,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3384,10 +3388,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3407,13 +3411,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
@@ -3435,13 +3439,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3492,7 +3496,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3501,10 +3505,10 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3524,14 +3528,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3544,25 +3548,25 @@
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3611,7 +3615,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3623,13 +3627,13 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3643,10 +3647,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3654,7 +3658,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3669,16 +3673,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3716,17 +3720,17 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3738,16 +3742,16 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -3758,23 +3762,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3786,16 +3790,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3845,7 +3849,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3857,16 +3861,16 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3877,10 +3881,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3891,7 +3895,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3903,13 +3907,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3960,13 +3964,13 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
@@ -3978,7 +3982,7 @@
         <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3992,14 +3996,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4018,16 +4022,16 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4065,19 +4069,19 @@
         <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4089,13 +4093,13 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -4109,10 +4113,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4123,31 +4127,31 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -4172,13 +4176,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -4196,31 +4200,31 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -4228,10 +4232,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4242,7 +4246,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4251,22 +4255,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -4291,13 +4295,13 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -4315,31 +4319,31 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -4347,10 +4351,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4358,10 +4362,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -4370,29 +4374,29 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>38</v>
@@ -4434,31 +4438,31 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4466,10 +4470,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4477,10 +4481,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4489,19 +4493,19 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4551,31 +4555,31 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4583,10 +4587,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4597,7 +4601,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4606,16 +4610,16 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4666,31 +4670,31 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4698,10 +4702,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4712,7 +4716,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4721,19 +4725,19 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4783,31 +4787,31 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4815,13 +4819,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>38</v>
@@ -4843,16 +4847,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4902,7 +4906,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4914,16 +4918,16 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4934,10 +4938,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4948,7 +4952,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4960,13 +4964,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5017,13 +5021,13 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
@@ -5035,7 +5039,7 @@
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -5049,14 +5053,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5075,16 +5079,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5122,19 +5126,19 @@
         <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5146,13 +5150,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -5166,10 +5170,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5180,31 +5184,31 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -5229,13 +5233,13 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>38</v>
@@ -5253,31 +5257,31 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -5285,10 +5289,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5299,7 +5303,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -5308,22 +5312,22 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5348,13 +5352,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -5372,31 +5376,31 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5404,10 +5408,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5415,10 +5419,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5427,29 +5431,29 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>38</v>
@@ -5491,31 +5495,31 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5523,10 +5527,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5534,10 +5538,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5546,19 +5550,19 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5608,31 +5612,31 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5640,10 +5644,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5654,7 +5658,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5663,16 +5667,16 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5723,31 +5727,31 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5755,10 +5759,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5769,7 +5773,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5778,19 +5782,19 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5840,31 +5844,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5872,23 +5876,23 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5900,16 +5904,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5959,7 +5963,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5971,16 +5975,16 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5991,10 +5995,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6005,7 +6009,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
@@ -6017,13 +6021,13 @@
         <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6074,13 +6078,13 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
@@ -6092,7 +6096,7 @@
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -6106,14 +6110,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6132,16 +6136,16 @@
         <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6179,19 +6183,19 @@
         <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6203,13 +6207,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -6223,10 +6227,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6237,31 +6241,31 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6286,13 +6290,13 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -6310,31 +6314,31 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -6342,10 +6346,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6356,7 +6360,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -6365,22 +6369,22 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6405,13 +6409,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6429,31 +6433,31 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>
@@ -6461,10 +6465,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6472,10 +6476,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6484,29 +6488,29 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>38</v>
@@ -6548,31 +6552,31 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6580,10 +6584,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6591,10 +6595,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6603,19 +6607,19 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6665,31 +6669,31 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6697,10 +6701,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6711,7 +6715,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6720,16 +6724,16 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6780,31 +6784,31 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6812,10 +6816,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6826,7 +6830,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6835,19 +6839,19 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6897,31 +6901,31 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>38</v>
@@ -6929,10 +6933,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6952,16 +6956,16 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7012,7 +7016,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7024,13 +7028,13 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -7044,10 +7048,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7067,16 +7071,16 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7127,7 +7131,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7139,13 +7143,13 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -7159,10 +7163,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7170,31 +7174,31 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7220,13 +7224,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7244,31 +7248,31 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>38</v>
@@ -7276,10 +7280,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7302,16 +7306,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7337,13 +7341,13 @@
         <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>38</v>
@@ -7361,7 +7365,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7373,19 +7377,19 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7393,10 +7397,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7407,7 +7411,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7419,13 +7423,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7452,13 +7456,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7476,25 +7480,25 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7508,10 +7512,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7519,10 +7523,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7531,19 +7535,19 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7569,13 +7573,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7593,31 +7597,31 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -7625,10 +7629,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7636,10 +7640,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7648,19 +7652,19 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7710,31 +7714,31 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -7742,10 +7746,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7756,7 +7760,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
@@ -7768,16 +7772,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7827,31 +7831,31 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7859,10 +7863,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7885,16 +7889,16 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7944,7 +7948,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7956,16 +7960,16 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7976,10 +7980,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7987,10 +7991,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7999,19 +8003,19 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8061,31 +8065,31 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8093,10 +8097,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8116,16 +8120,16 @@
         <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8176,7 +8180,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8188,19 +8192,19 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8208,10 +8212,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8222,7 +8226,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -8234,13 +8238,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8291,13 +8295,13 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
@@ -8309,7 +8313,7 @@
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8323,14 +8327,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8349,16 +8353,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8408,7 +8412,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8420,13 +8424,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8440,14 +8444,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8460,25 +8464,25 @@
         <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8527,7 +8531,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8539,13 +8543,13 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8559,10 +8563,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8573,7 +8577,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8585,13 +8589,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8618,13 +8622,13 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>38</v>
@@ -8642,25 +8646,25 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8674,10 +8678,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8685,10 +8689,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8697,16 +8701,16 @@
         <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8757,25 +8761,25 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8789,10 +8793,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8815,13 +8819,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8848,13 +8852,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8872,7 +8876,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8884,19 +8888,19 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -8904,10 +8908,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8930,16 +8934,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8989,7 +8993,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9001,30 +9005,30 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9035,7 +9039,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -9047,19 +9051,19 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9108,31 +9112,31 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -9140,10 +9144,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9166,16 +9170,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9225,7 +9229,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9237,19 +9241,19 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -9257,10 +9261,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9283,16 +9287,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9342,7 +9346,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9354,13 +9358,13 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -9374,10 +9378,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9388,7 +9392,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -9400,13 +9404,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9457,25 +9461,25 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9489,10 +9493,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9503,7 +9507,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9515,13 +9519,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9572,13 +9576,13 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
@@ -9590,7 +9594,7 @@
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
@@ -9604,14 +9608,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9630,16 +9634,16 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9689,7 +9693,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9701,13 +9705,13 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>38</v>
@@ -9721,14 +9725,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9741,25 +9745,25 @@
         <v>38</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9808,7 +9812,7 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9820,13 +9824,13 @@
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9840,10 +9844,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9854,7 +9858,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9866,13 +9870,13 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9923,25 +9927,25 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -9955,10 +9959,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9969,7 +9973,7 @@
         <v>39</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>38</v>
@@ -9981,16 +9985,16 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10016,11 +10020,11 @@
         <v>38</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -10038,31 +10042,31 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>38</v>
@@ -10070,10 +10074,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10084,7 +10088,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -10096,13 +10100,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10129,13 +10133,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -10153,31 +10157,31 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
@@ -10185,10 +10189,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10199,7 +10203,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -10211,19 +10215,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10248,13 +10252,13 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -10272,31 +10276,31 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10304,10 +10308,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10318,7 +10322,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>38</v>
@@ -10330,13 +10334,13 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10387,13 +10391,13 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>38</v>
@@ -10405,7 +10409,7 @@
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
@@ -10419,14 +10423,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10445,16 +10449,16 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10492,19 +10496,19 @@
         <v>38</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10516,13 +10520,13 @@
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
@@ -10536,10 +10540,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10559,22 +10563,22 @@
         <v>38</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10611,17 +10615,17 @@
         <v>38</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10633,19 +10637,19 @@
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>38</v>
@@ -10653,13 +10657,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>38</v>
@@ -10669,7 +10673,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -10678,22 +10682,22 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10718,11 +10722,11 @@
         <v>38</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10740,7 +10744,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10752,19 +10756,19 @@
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>38</v>
@@ -10772,10 +10776,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10786,7 +10790,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10798,13 +10802,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10855,13 +10859,13 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
@@ -10873,7 +10877,7 @@
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>38</v>
@@ -10887,14 +10891,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10913,16 +10917,16 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10960,19 +10964,19 @@
         <v>38</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10984,13 +10988,13 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -11004,10 +11008,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11015,10 +11019,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -11027,29 +11031,29 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>38</v>
@@ -11091,31 +11095,31 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11123,10 +11127,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11137,7 +11141,7 @@
         <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -11146,19 +11150,19 @@
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11208,31 +11212,31 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11240,10 +11244,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11254,7 +11258,7 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>38</v>
@@ -11263,20 +11267,20 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>38</v>
@@ -11325,31 +11329,31 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>38</v>
@@ -11357,10 +11361,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11371,7 +11375,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>38</v>
@@ -11380,20 +11384,20 @@
         <v>38</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>38</v>
@@ -11442,31 +11446,31 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>38</v>
@@ -11474,10 +11478,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11488,7 +11492,7 @@
         <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>38</v>
@@ -11497,22 +11501,22 @@
         <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>38</v>
@@ -11561,31 +11565,31 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>38</v>
@@ -11593,13 +11597,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>38</v>
@@ -11609,7 +11613,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>38</v>
@@ -11618,22 +11622,22 @@
         <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11658,11 +11662,11 @@
         <v>38</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>38</v>
@@ -11680,7 +11684,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11692,19 +11696,19 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>38</v>
@@ -11712,10 +11716,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11726,7 +11730,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>38</v>
@@ -11738,13 +11742,13 @@
         <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11795,13 +11799,13 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>38</v>
@@ -11813,7 +11817,7 @@
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>38</v>
@@ -11827,14 +11831,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11853,16 +11857,16 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11900,19 +11904,19 @@
         <v>38</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -11924,13 +11928,13 @@
         <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>38</v>
@@ -11944,10 +11948,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11955,10 +11959,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>38</v>
@@ -11967,29 +11971,29 @@
         <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>38</v>
@@ -12031,31 +12035,31 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>38</v>
@@ -12063,10 +12067,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12077,7 +12081,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>38</v>
@@ -12086,19 +12090,19 @@
         <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12148,31 +12152,31 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
@@ -12180,10 +12184,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12194,7 +12198,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>38</v>
@@ -12203,20 +12207,20 @@
         <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>38</v>
@@ -12265,31 +12269,31 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
@@ -12297,10 +12301,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12311,7 +12315,7 @@
         <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>38</v>
@@ -12320,20 +12324,20 @@
         <v>38</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -12382,31 +12386,31 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -12414,10 +12418,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12428,7 +12432,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>38</v>
@@ -12437,22 +12441,22 @@
         <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -12501,31 +12505,31 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -12533,10 +12537,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12547,7 +12551,7 @@
         <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>38</v>
@@ -12556,22 +12560,22 @@
         <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -12620,31 +12624,31 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -12652,10 +12656,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12666,7 +12670,7 @@
         <v>39</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>38</v>
@@ -12678,16 +12682,16 @@
         <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12737,31 +12741,31 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -12769,10 +12773,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12783,7 +12787,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>38</v>
@@ -12795,16 +12799,16 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12842,41 +12846,41 @@
         <v>38</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AC92" s="2"/>
       <c r="AD92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>38</v>
@@ -12884,13 +12888,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>38</v>
@@ -12900,7 +12904,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>38</v>
@@ -12912,16 +12916,16 @@
         <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12971,31 +12975,31 @@
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>38</v>
@@ -13003,10 +13007,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13029,16 +13033,16 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13088,7 +13092,7 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13100,13 +13104,13 @@
         <v>38</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -145,7 +145,7 @@
     <t>患者への薬剤投与記録</t>
   </si>
   <si>
-    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
@@ -523,7 +523,7 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -812,11 +812,10 @@
     <t>MedicationAdministration.instantiates</t>
   </si>
   <si>
-    <t>Instantiates protocol or definition　プロトコルや定義のインスタンス化</t>
-  </si>
-  <si>
-    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.
-このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
+    <t>プロトコルや定義のインスタンス化</t>
+  </si>
+  <si>
+    <t>このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
   </si>
   <si>
     <t>Event.instantiates</t>
@@ -832,11 +831,10 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event  親イベントへの参照</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular event is a component or step.
-この特定のイベントがコンポーネントまたはステップであるようなより大きな親イベント。</t>
+    <t>親イベントへの参照</t>
+  </si>
+  <si>
+    <t>この特定のイベントがコンポーネントまたはステップであるようなより大きな親イベント。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -851,8 +849,7 @@
     <t>completed | stopped</t>
   </si>
   <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
-通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
+    <t>通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
 【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
@@ -880,14 +877,10 @@
     <t>MedicationAdministration.statusReason</t>
   </si>
   <si>
-    <t>Reason administration not performed　実施されていない理由</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.　投与が実施されていない理由を示すコード</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+    <t>実施されていない理由</t>
+  </si>
+  <si>
+    <t>投与が実施されていない理由を示すコード</t>
   </si>
   <si>
     <t>example</t>
@@ -911,13 +904,10 @@
     <t>MedicationAdministration.category</t>
   </si>
   <si>
-    <t>Type of medication usage　薬が使用される区分</t>
-  </si>
-  <si>
-    <t>Indicates where the medication is expected to be consumed or administered.
-薬が消費または投与されると予想される場所区分(入院、外来、家庭等)を示す。
-inpatient | outpatient | community
- (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
+    <t>薬が使用される区分</t>
+  </si>
+  <si>
+    <t>薬剤の摂取または投与が予想される場所を示します。</t>
   </si>
   <si>
     <t>薬剤の投与が予想される場所を記述するコード化された概念。</t>
@@ -932,15 +922,13 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t>What medication was supplied　医薬品</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
-投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+    <t>医薬品</t>
+  </si>
+  <si>
+    <t>投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
 厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
  なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
@@ -975,15 +963,13 @@
 </t>
   </si>
   <si>
-    <t>Who received medication　投与対象患者</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.
-投与を受ける患者</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+    <t>投与対象患者</t>
+  </si>
+  <si>
+    <t>投与を受ける患者</t>
+  </si>
+  <si>
+    <t>参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1005,11 +991,10 @@
 </t>
   </si>
   <si>
-    <t>Encounter or Episode of Care administered as part of　Encounter、または一部として実施されるケアエピソード</t>
-  </si>
-  <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.
-投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
+    <t>Encounter、または一部として実施されるケアエピソード</t>
+  </si>
+  <si>
+    <t>投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
 受診情報や入院情報を表すEncounterへの参照。</t>
   </si>
   <si>
@@ -1032,11 +1017,10 @@
 </t>
   </si>
   <si>
-    <t>Additional information to support administration　投与をサポートする追加情報</t>
-  </si>
-  <si>
-    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.
-薬の投与をサポートする追加情報（たとえば、患者の身長や体重）。</t>
+    <t>投与をサポートする追加情報</t>
+  </si>
+  <si>
+    <t>薬の投与をサポートする追加情報（たとえば、患者の身長や体重）。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
@@ -1049,15 +1033,13 @@
 Period</t>
   </si>
   <si>
-    <t>Start and end time of administration　開始時間と終了時間</t>
-  </si>
-  <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.
-投与が行われた（または「notGiven」属性がtrueの場合は行われなかった）特定の日時または時間間隔。錠剤を飲み込むなど、多くの管理では、dateTimeの使用がより適切である。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-投与実施日時であり、JP Coreでは必須である。</t>
+    <t>開始時間と終了時間</t>
+  </si>
+  <si>
+    <t>投与が行われた（または「notGiven」属性がtrueの場合は行われなかった）特定の日時または時間間隔。錠剤を飲み込むなど、多くの管理では、dateTimeの使用がより適切である。</t>
+  </si>
+  <si>
+    <t>投与実施日時であり、JP Coreでは必須である。</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1079,11 +1061,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration and what they did　投薬を実施した人</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration and how they were involved.
-投薬およびそれに関与した人</t>
+    <t>投薬を実施した人</t>
+  </si>
+  <si>
+    <t>投薬およびそれに関与した人</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1176,11 +1157,10 @@
     <t>MedicationAdministration.reasonCode</t>
   </si>
   <si>
-    <t>Reason administration performed　投薬が実施された理由</t>
-  </si>
-  <si>
-    <t>A code indicating why the medication was given.
-投薬が実施された理由を示すコード</t>
+    <t>投薬が実施された理由</t>
+  </si>
+  <si>
+    <t>投薬が実施された理由を示すコード</t>
   </si>
   <si>
     <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
@@ -1205,15 +1185,10 @@
 </t>
   </si>
   <si>
-    <t>Condition or observation that supports why the medication was administered　薬が投与された理由を裏付ける状態または観察</t>
-  </si>
-  <si>
-    <t>Condition or observation that supports why the medication was administered.
-薬が投与された理由を裏付ける状態または観察</t>
-  </si>
-  <si>
-    <t>This is a reference to a condition that is the reason for the medication request.  If only a code exists, use reasonCode.
-これは、投薬要求の理由である状態への参照。コードのみが存在する場合は、reasonCodeを使用する。</t>
+    <t>薬が投与された理由を裏付ける状態または観察</t>
+  </si>
+  <si>
+    <t>これは、投薬要求の理由である状態への参照。コードのみが存在する場合は、reasonCodeを使用する。</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1235,15 +1210,13 @@
 </t>
   </si>
   <si>
-    <t>Request administration performed against　実施された元の投与依頼情報</t>
-  </si>
-  <si>
-    <t>The original request, instruction or authority to perform the administration.
-投与を実行する元になった投与指示や権限への参照情報。</t>
-  </si>
-  <si>
-    <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.
-これは、orderまたはinstance-orderのいずれかであるMedicationRequestへの参照。インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
+    <t>実施された元の投与依頼情報</t>
+  </si>
+  <si>
+    <t>投与を実行する元になった投与指示や権限への参照情報。</t>
+  </si>
+  <si>
+    <t>これは、orderまたはinstance-orderのいずれかであるMedicationRequestへの参照。インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
   </si>
   <si>
     <t>これは、インテント（意図）がorderまたはinstance-orderのいずれかであるMedicationRequestへの参照である。
@@ -1266,11 +1239,10 @@
 </t>
   </si>
   <si>
-    <t>Device used to administer　投与に使用されるデバイス</t>
-  </si>
-  <si>
-    <t>The device used in administering the medication to the patient.  For example, a particular infusion pump.
-患者に薬を投与する際に使用されるデバイスへの参照。たとえば、特定の輸液ポンプ。</t>
+    <t>投与に使用されるデバイス</t>
+  </si>
+  <si>
+    <t>患者に薬を投与する際に使用されるデバイスへの参照。たとえば、特定の輸液ポンプ。</t>
   </si>
   <si>
     <t>device-&gt;Access  OR device-&gt;AssignedDevice</t>
@@ -1286,15 +1258,10 @@
 </t>
   </si>
   <si>
-    <t>Information about the administration　投与に関する備考情報</t>
-  </si>
-  <si>
-    <t>Extra information about the medication administration that is not conveyed by the other attributes.
-他の属性では伝えられない投薬管理に関する追加情報。</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
+    <t>投与に関する備考情報</t>
+  </si>
+  <si>
+    <t>構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
 *注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
   </si>
   <si>
@@ -1307,11 +1274,10 @@
     <t>MedicationAdministration.dosage</t>
   </si>
   <si>
-    <t>Details of how medication was taken　薬の服用方法の詳細</t>
-  </si>
-  <si>
-    <t>Describes the medication dosage information details e.g. dose, rate, site, route, etc.
-投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
+    <t>薬の服用方法の詳細</t>
+  </si>
+  <si>
+    <t>投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
@@ -1333,13 +1299,10 @@
     <t>MedicationAdministration.dosage.text</t>
   </si>
   <si>
-    <t>Free text dosage instructions e.g. SIG　フリーテキストの投与方法の説明　SIG:用法</t>
-  </si>
-  <si>
-    <t>Free text dosage can be used for cases where the dosage administered is too complex to code. When coded dosage is present, the free text dosage may still be present for display to humans.--The dosage instructions should reflect the dosage of the medication that was administered.
-フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。
+    <t>フリーテキストの投与方法の説明　SIG:用法</t>
+  </si>
+  <si>
+    <t>フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。
 投与量や用法のこの指示は、実際に投与される薬の投与量や用法を反映する必要がある。</t>
   </si>
   <si>
@@ -1349,15 +1312,13 @@
     <t>MedicationAdministration.dosage.site</t>
   </si>
   <si>
-    <t>Body site administered to　投与部位</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first entered the body.  For example, "left arm".
-薬が最初に体内に入った解剖学的部位のコード化された記述。たとえば、「左腕」。</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.
-ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
+    <t>投与部位</t>
+  </si>
+  <si>
+    <t>薬が最初に体内に入った解剖学的部位のコード化された記述。たとえば、「左腕」。</t>
+  </si>
+  <si>
+    <t>ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
@@ -1684,11 +1645,10 @@
 </t>
   </si>
   <si>
-    <t>Amount of medication per dose　用量あたりの投薬量</t>
-  </si>
-  <si>
-    <t>The amount of the medication given at one administration event.   Use this value when the administration is essentially an instantaneous event such as a swallowing a tablet or giving an injection.
-1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
+    <t>用量あたりの投薬量</t>
+  </si>
+  <si>
+    <t>1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
   </si>
   <si>
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
@@ -1711,16 +1671,14 @@
 Quantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>Dose quantity per unit of time　単位時間あたりの用量</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient.  Typically, the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time, e.g. 500 ml per 2 hours.  Other examples:  200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.
-薬が患者に導入された、または導入される予定の速度を識別する。
+    <t>単位時間あたりの用量</t>
+  </si>
+  <si>
+    <t>薬が患者に導入された、または導入される予定の速度を識別する。
 通常、注入の速度。 1時間あたり100mlまたは100ml/時。単位時間あたりのレートとして表すこともできる。 2時間あたり500ml。その他の例：200mcg/分または200mcg/1分。 1リットル/8時間。</t>
   </si>
   <si>
-    <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.
-レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
+    <t>レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -1763,11 +1721,10 @@
 </t>
   </si>
   <si>
-    <t>A list of events of interest in the lifecycle　ライフサイクルで関心のあるイベントのリスト</t>
-  </si>
-  <si>
-    <t>A summary of the events of interest that have occurred, such as when the administration was verified.
-投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
+    <t>ライフサイクルで関心のあるイベントのリスト</t>
+  </si>
+  <si>
+    <t>投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
   </si>
   <si>
     <t>この要請のすべてのバージョンの起源が含まれているわけではない可能性があります。ただし、「関連性」または重要と見なされるものに限定されます。それに含まれる証跡には、このリソースの現在のバージョンに関連するものは含まれません。 （そのプロバイナンスが「関連性のある」変更である場合、後の更新の一部として追加する必要があります。その時までは、このバージョンを指すプロバイナンスとして直接クエリできます。All Provenancesは、この要求の過去のバージョンを主題として持つ必要があります。</t>
@@ -7314,9 +7271,7 @@
       <c r="M45" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>278</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7341,13 +7296,13 @@
         <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>38</v>
@@ -7380,16 +7335,16 @@
         <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7397,10 +7352,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7426,10 +7381,10 @@
         <v>172</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7459,11 +7414,11 @@
         <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7480,7 +7435,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7498,7 +7453,7 @@
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7512,10 +7467,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7541,13 +7496,13 @@
         <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7576,11 +7531,11 @@
         <v>72</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
       </c>
@@ -7597,7 +7552,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>48</v>
@@ -7612,16 +7567,16 @@
         <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -7629,10 +7584,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7655,16 +7610,16 @@
         <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7714,7 +7669,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>48</v>
@@ -7729,16 +7684,16 @@
         <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>38</v>
@@ -7746,10 +7701,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7772,16 +7727,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7831,7 +7786,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7846,16 +7801,16 @@
         <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7863,10 +7818,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7889,16 +7844,16 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7948,7 +7903,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7966,10 +7921,10 @@
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7980,10 +7935,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8006,16 +7961,16 @@
         <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8065,7 +8020,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>48</v>
@@ -8080,16 +8035,16 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8097,10 +8052,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8123,13 +8078,13 @@
         <v>49</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8180,7 +8135,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8195,16 +8150,16 @@
         <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8212,10 +8167,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8241,10 +8196,10 @@
         <v>146</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8327,10 +8282,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8356,10 +8311,10 @@
         <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>126</v>
@@ -8444,14 +8399,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8473,10 +8428,10 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>126</v>
@@ -8531,7 +8486,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8563,10 +8518,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8592,10 +8547,10 @@
         <v>172</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8622,14 +8577,14 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>38</v>
       </c>
@@ -8646,7 +8601,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8661,10 +8616,10 @@
         <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8678,10 +8633,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8704,13 +8659,13 @@
         <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8761,7 +8716,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>48</v>
@@ -8776,10 +8731,10 @@
         <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8793,10 +8748,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8822,10 +8777,10 @@
         <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8852,14 +8807,14 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z58" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8876,7 +8831,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8891,16 +8846,16 @@
         <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>38</v>
@@ -8908,10 +8863,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8934,16 +8889,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8993,7 +8948,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9008,27 +8963,27 @@
         <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9051,19 +9006,19 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9112,7 +9067,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9127,16 +9082,16 @@
         <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -9144,10 +9099,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9170,16 +9125,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9229,7 +9184,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9247,13 +9202,13 @@
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -9261,10 +9216,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9287,17 +9242,15 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>400</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -9346,7 +9299,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9361,10 +9314,10 @@
         <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
@@ -9378,10 +9331,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9404,13 +9357,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9461,25 +9414,25 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9493,10 +9446,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9522,10 +9475,10 @@
         <v>146</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9608,10 +9561,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9637,10 +9590,10 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>126</v>
@@ -9725,14 +9678,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9754,10 +9707,10 @@
         <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>126</v>
@@ -9812,7 +9765,7 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9844,10 +9797,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9873,10 +9826,10 @@
         <v>146</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9927,7 +9880,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9945,7 +9898,7 @@
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -9959,10 +9912,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9988,13 +9941,13 @@
         <v>172</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10024,7 +9977,7 @@
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>38</v>
@@ -10042,7 +9995,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10060,13 +10013,13 @@
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>38</v>
@@ -10074,10 +10027,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10103,10 +10056,10 @@
         <v>172</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10133,13 +10086,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -10157,7 +10110,7 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10175,13 +10128,13 @@
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>38</v>
@@ -10189,10 +10142,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10218,16 +10171,16 @@
         <v>172</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10252,13 +10205,13 @@
         <v>38</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>38</v>
@@ -10276,7 +10229,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10294,13 +10247,13 @@
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>38</v>
@@ -10308,10 +10261,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10423,10 +10376,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10540,10 +10493,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10566,19 +10519,19 @@
         <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10625,7 +10578,7 @@
         <v>97</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10643,13 +10596,13 @@
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>38</v>
@@ -10657,13 +10610,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>38</v>
@@ -10685,19 +10638,19 @@
         <v>49</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10726,7 +10679,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>38</v>
@@ -10744,7 +10697,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10762,13 +10715,13 @@
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>38</v>
@@ -10776,10 +10729,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10891,10 +10844,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11008,10 +10961,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11037,23 +10990,23 @@
         <v>62</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O77" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>38</v>
@@ -11095,7 +11048,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11113,13 +11066,13 @@
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>38</v>
@@ -11127,10 +11080,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11156,13 +11109,13 @@
         <v>146</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11212,7 +11165,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11230,13 +11183,13 @@
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>
@@ -11244,10 +11197,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11273,14 +11226,14 @@
         <v>68</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>38</v>
@@ -11329,7 +11282,7 @@
         <v>38</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11347,13 +11300,13 @@
         <v>38</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>38</v>
@@ -11361,10 +11314,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11390,14 +11343,14 @@
         <v>146</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>38</v>
@@ -11446,7 +11399,7 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11464,13 +11417,13 @@
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>38</v>
@@ -11478,10 +11431,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11504,19 +11457,19 @@
         <v>49</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>38</v>
@@ -11565,7 +11518,7 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11583,13 +11536,13 @@
         <v>38</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>38</v>
@@ -11597,13 +11550,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>38</v>
@@ -11625,19 +11578,19 @@
         <v>49</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11666,7 +11619,7 @@
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>38</v>
@@ -11684,7 +11637,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11702,13 +11655,13 @@
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>38</v>
@@ -11716,10 +11669,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11831,10 +11784,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11948,10 +11901,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11977,23 +11930,23 @@
         <v>62</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O85" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>38</v>
@@ -12035,7 +11988,7 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12053,13 +12006,13 @@
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>38</v>
@@ -12067,10 +12020,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12096,13 +12049,13 @@
         <v>146</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12152,7 +12105,7 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12170,13 +12123,13 @@
         <v>38</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>38</v>
@@ -12184,10 +12137,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12213,14 +12166,14 @@
         <v>68</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>38</v>
@@ -12269,7 +12222,7 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12287,13 +12240,13 @@
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>38</v>
@@ -12301,10 +12254,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12330,14 +12283,14 @@
         <v>146</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -12386,7 +12339,7 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12404,13 +12357,13 @@
         <v>38</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>38</v>
@@ -12418,10 +12371,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12444,19 +12397,19 @@
         <v>49</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>38</v>
@@ -12505,7 +12458,7 @@
         <v>38</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12523,13 +12476,13 @@
         <v>38</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>38</v>
@@ -12537,10 +12490,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12566,16 +12519,16 @@
         <v>146</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>38</v>
@@ -12624,7 +12577,7 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -12642,13 +12595,13 @@
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>38</v>
@@ -12656,10 +12609,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12682,16 +12635,16 @@
         <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12741,7 +12694,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12753,19 +12706,19 @@
         <v>105</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>38</v>
@@ -12773,10 +12726,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12799,16 +12752,16 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12846,7 +12799,7 @@
         <v>38</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AC92" s="2"/>
       <c r="AD92" t="s" s="2">
@@ -12856,7 +12809,7 @@
         <v>97</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -12874,13 +12827,13 @@
         <v>38</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>38</v>
@@ -12888,13 +12841,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>38</v>
@@ -12916,16 +12869,16 @@
         <v>38</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -12975,7 +12928,7 @@
         <v>38</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -12987,13 +12940,13 @@
         <v>105</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>38</v>
@@ -13007,10 +12960,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13033,16 +12986,16 @@
         <v>38</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13092,7 +13045,7 @@
         <v>38</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13110,7 +13063,7 @@
         <v>38</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -149,7 +149,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -174,10 +174,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
-  </si>
-  <si>
-    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -190,7 +190,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースに関するメタデータ」</t>
+    <t>リソースに関するメタデータ</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -213,7 +213,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -232,7 +232,7 @@
     <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
   </si>
   <si>
-    <t>「リソースが書かれている基本言語。」</t>
+    <t>リソースが書かれている基本言語。</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -261,10 +261,10 @@
 </t>
   </si>
   <si>
-    <t>「人間の解釈のためのリソースのテキスト要約」</t>
-  </si>
-  <si>
-    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+    <t>人間の解釈のためのリソースのテキスト要約</t>
+  </si>
+  <si>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -290,10 +290,10 @@
     <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
   </si>
   <si>
-    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
-  </si>
-  <si>
-    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -326,7 +326,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:requestDepartment</t>
@@ -413,7 +413,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -1094,7 +1094,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1104,11 +1104,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1123,7 +1123,7 @@
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
   </si>
   <si>
-    <t>「薬物管理を行った個人の役割を説明するコード」</t>
+    <t>薬物管理を行った個人の役割を説明するコード</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1145,7 +1145,7 @@
     <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
   </si>
   <si>
-    <t>「薬剤投与を行った人物または物品を示す」</t>
+    <t>薬剤投与を行った人物または物品を示す</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1163,7 +1163,7 @@
     <t>投薬が実施された理由を示すコード</t>
   </si>
   <si>
-    <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
+    <t>薬剤投与が行われた理由を示すコードのセット。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1339,7 +1339,7 @@
     <t>治療剤の患者への内部または表面への投与のルートまたは生理学的経路を指定するコード。例えば、表面的な投与、静注など。</t>
   </si>
   <si>
-    <t>「治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念」</t>
+    <t>治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -1363,7 +1363,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
+    <t>薬剤が投与される方法を記述する暗号化された概念。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -382,7 +382,7 @@
     <t>実施場所</t>
   </si>
   <si>
-    <t>実施場所を格納するための拡張。
+    <t>実施場所を格納するための拡張。  
 実施場所を記述した  Locationリソースへの参照。</t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>依頼医</t>
   </si>
   <si>
-    <t>依頼医を格納するための拡張。
+    <t>依頼医を格納するための拡張。  
 依頼医を記述した Practitioner  リソースへの参照。</t>
   </si>
   <si>
@@ -438,8 +438,8 @@
     <t>外部から参照されるID</t>
   </si>
   <si>
-    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
-処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。  
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。  
 このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
@@ -849,7 +849,7 @@
     <t>completed | stopped</t>
   </si>
   <si>
-    <t>通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
+    <t>通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。  
 【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
@@ -928,13 +928,11 @@
     <t>投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
   </si>
   <si>
-    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。  
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。  
+なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。  
+ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。  
+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。  
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
@@ -994,7 +992,7 @@
     <t>Encounter、または一部として実施されるケアエピソード</t>
   </si>
   <si>
-    <t>投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
+    <t>投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。  
 受診情報や入院情報を表すEncounterへの参照。</t>
   </si>
   <si>
@@ -1219,7 +1217,7 @@
     <t>これは、orderまたはinstance-orderのいずれかであるMedicationRequestへの参照。インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
   </si>
   <si>
-    <t>これは、インテント（意図）がorderまたはinstance-orderのいずれかであるMedicationRequestへの参照である。
+    <t>これは、インテント（意図）がorderまたはinstance-orderのいずれかであるMedicationRequestへの参照である。  
 インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
   </si>
   <si>
@@ -1261,7 +1259,7 @@
     <t>投与に関する備考情報</t>
   </si>
   <si>
-    <t>構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
+    <t>構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。   
 *注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
   </si>
   <si>
@@ -1302,7 +1300,7 @@
     <t>フリーテキストの投与方法の説明　SIG:用法</t>
   </si>
   <si>
-    <t>フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。
+    <t>フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。  
 投与量や用法のこの指示は、実際に投与される薬の投与量や用法を反映する必要がある。</t>
   </si>
   <si>
@@ -1674,7 +1672,7 @@
     <t>単位時間あたりの用量</t>
   </si>
   <si>
-    <t>薬が患者に導入された、または導入される予定の速度を識別する。
+    <t>薬が患者に導入された、または導入される予定の速度を識別する。  
 通常、注入の速度。 1時間あたり100mlまたは100ml/時。単位時間あたりのレートとして表すこともできる。 2時間あたり500ml。その他の例：200mcg/分または200mcg/1分。 1リットル/8時間。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -229,7 +229,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -241,7 +241,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -287,7 +287,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -1115,7 +1115,7 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
+    <t>「パフォーマンスの種類」</t>
   </si>
   <si>
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
@@ -1140,7 +1140,7 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+    <t>「薬剤投与を行ったのは誰ですか？」</t>
   </si>
   <si>
     <t>薬剤投与を行った人物または物品を示す</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministration.xlsx
@@ -268,11 +268,11 @@
     <t>患者への薬剤投与記録</t>
   </si>
   <si>
-    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -297,10 +297,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -313,7 +313,7 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ</t>
+    <t>「リソースに関するメタデータ」</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -336,7 +336,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -352,10 +352,10 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -364,7 +364,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -384,10 +384,10 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト要約</t>
-  </si>
-  <si>
-    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -410,13 +410,13 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」</t>
-  </si>
-  <si>
-    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
-  </si>
-  <si>
-    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -449,7 +449,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:requestDepartment</t>
@@ -536,7 +536,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -646,7 +646,7 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -1215,7 +1215,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1225,11 +1225,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されなくても無視できない拡張機能</t>
-  </si>
-  <si>
-    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1238,13 +1238,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>「パフォーマンスの種類」</t>
+    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
   </si>
   <si>
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
   </si>
   <si>
-    <t>薬物管理を行った個人の役割を説明するコード</t>
+    <t>「薬物管理を行った個人の役割を説明するコード」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1263,10 +1263,10 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰ですか？」</t>
-  </si>
-  <si>
-    <t>薬剤投与を行った人物または物品を示す</t>
+    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+  </si>
+  <si>
+    <t>「薬剤投与を行った人物または物品を示す」</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1284,7 +1284,7 @@
     <t>投薬が実施された理由を示すコード</t>
   </si>
   <si>
-    <t>薬剤投与が行われた理由を示すコードのセット。</t>
+    <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1460,7 +1460,7 @@
     <t>治療剤の患者への内部または表面への投与のルートまたは生理学的経路を指定するコード。例えば、表面的な投与、静注など。</t>
   </si>
   <si>
-    <t>治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念</t>
+    <t>「治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -1484,7 +1484,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>薬剤が投与される方法を記述する暗号化された概念。</t>
+    <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
